--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L480"/>
+  <dimension ref="A1:L482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18703,6 +18703,82 @@
         <v>7.105</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="B481" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C481" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D481" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E481" t="n">
+        <v>3.366</v>
+      </c>
+      <c r="F481" t="n">
+        <v>4.897</v>
+      </c>
+      <c r="G481" t="n">
+        <v>5.338</v>
+      </c>
+      <c r="H481" t="n">
+        <v>6.503</v>
+      </c>
+      <c r="I481" t="n">
+        <v>6.496</v>
+      </c>
+      <c r="J481" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="K481" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="L481" t="n">
+        <v>7.088</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="B482" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C482" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D482" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E482" t="n">
+        <v>3.378</v>
+      </c>
+      <c r="F482" t="n">
+        <v>4.912</v>
+      </c>
+      <c r="G482" t="n">
+        <v>5.344</v>
+      </c>
+      <c r="H482" t="n">
+        <v>6.501</v>
+      </c>
+      <c r="I482" t="n">
+        <v>6.491</v>
+      </c>
+      <c r="J482" t="n">
+        <v>6.911</v>
+      </c>
+      <c r="K482" t="n">
+        <v>7.244</v>
+      </c>
+      <c r="L482" t="n">
+        <v>7.091</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L482"/>
+  <dimension ref="A1:L483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18779,6 +18779,44 @@
         <v>7.091</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B483" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C483" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D483" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E483" t="n">
+        <v>3.352</v>
+      </c>
+      <c r="F483" t="n">
+        <v>4.902</v>
+      </c>
+      <c r="G483" t="n">
+        <v>5.351</v>
+      </c>
+      <c r="H483" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="I483" t="n">
+        <v>6.497</v>
+      </c>
+      <c r="J483" t="n">
+        <v>6.913</v>
+      </c>
+      <c r="K483" t="n">
+        <v>7.244</v>
+      </c>
+      <c r="L483" t="n">
+        <v>7.093</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L483"/>
+  <dimension ref="A1:L484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18817,6 +18817,44 @@
         <v>7.093</v>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B484" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="C484" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D484" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E484" t="n">
+        <v>3.424</v>
+      </c>
+      <c r="F484" t="n">
+        <v>4.902</v>
+      </c>
+      <c r="G484" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="H484" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="I484" t="n">
+        <v>6.488</v>
+      </c>
+      <c r="J484" t="n">
+        <v>6.928</v>
+      </c>
+      <c r="K484" t="n">
+        <v>7.234</v>
+      </c>
+      <c r="L484" t="n">
+        <v>7.098</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L484"/>
+  <dimension ref="A1:L485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18855,6 +18855,44 @@
         <v>7.098</v>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B485" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="C485" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D485" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E485" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="F485" t="n">
+        <v>4.902</v>
+      </c>
+      <c r="G485" t="n">
+        <v>5.395</v>
+      </c>
+      <c r="H485" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="I485" t="n">
+        <v>6.506</v>
+      </c>
+      <c r="J485" t="n">
+        <v>6.922</v>
+      </c>
+      <c r="K485" t="n">
+        <v>7.232</v>
+      </c>
+      <c r="L485" t="n">
+        <v>7.089</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L485"/>
+  <dimension ref="A1:L486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18893,6 +18893,44 @@
         <v>7.089</v>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B486" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="C486" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D486" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E486" t="n">
+        <v>3.354</v>
+      </c>
+      <c r="F486" t="n">
+        <v>4.911</v>
+      </c>
+      <c r="G486" t="n">
+        <v>5.457</v>
+      </c>
+      <c r="H486" t="n">
+        <v>6.637</v>
+      </c>
+      <c r="I486" t="n">
+        <v>6.518</v>
+      </c>
+      <c r="J486" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="K486" t="n">
+        <v>7.231</v>
+      </c>
+      <c r="L486" t="n">
+        <v>7.098</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L486"/>
+  <dimension ref="A1:L487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18931,6 +18931,44 @@
         <v>7.098</v>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B487" t="n">
+        <v>3.178</v>
+      </c>
+      <c r="C487" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D487" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E487" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="F487" t="n">
+        <v>4.969</v>
+      </c>
+      <c r="G487" t="n">
+        <v>5.572</v>
+      </c>
+      <c r="H487" t="n">
+        <v>6.806</v>
+      </c>
+      <c r="I487" t="n">
+        <v>6.601</v>
+      </c>
+      <c r="J487" t="n">
+        <v>7.114</v>
+      </c>
+      <c r="K487" t="n">
+        <v>7.343</v>
+      </c>
+      <c r="L487" t="n">
+        <v>7.212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L487"/>
+  <dimension ref="A1:L488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18945,28 +18945,66 @@
         <v>3.45</v>
       </c>
       <c r="E487" t="n">
-        <v>3.315</v>
+        <v>3.372</v>
       </c>
       <c r="F487" t="n">
-        <v>4.969</v>
+        <v>4.951</v>
       </c>
       <c r="G487" t="n">
-        <v>5.572</v>
+        <v>5.53</v>
       </c>
       <c r="H487" t="n">
-        <v>6.806</v>
+        <v>6.713</v>
       </c>
       <c r="I487" t="n">
-        <v>6.601</v>
+        <v>6.51</v>
       </c>
       <c r="J487" t="n">
-        <v>7.114</v>
+        <v>7.016</v>
       </c>
       <c r="K487" t="n">
-        <v>7.343</v>
+        <v>7.236</v>
       </c>
       <c r="L487" t="n">
-        <v>7.212</v>
+        <v>7.104</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B488" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="C488" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D488" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E488" t="n">
+        <v>3.341</v>
+      </c>
+      <c r="F488" t="n">
+        <v>4.997</v>
+      </c>
+      <c r="G488" t="n">
+        <v>5.611</v>
+      </c>
+      <c r="H488" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="I488" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="J488" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K488" t="n">
+        <v>7.236</v>
+      </c>
+      <c r="L488" t="n">
+        <v>7.259</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L488"/>
+  <dimension ref="A1:L489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18974,7 +18974,7 @@
         <v>44628</v>
       </c>
       <c r="B488" t="n">
-        <v>2.846</v>
+        <v>3.301</v>
       </c>
       <c r="C488" t="n">
         <v>3.33</v>
@@ -18983,28 +18983,66 @@
         <v>3.45</v>
       </c>
       <c r="E488" t="n">
-        <v>3.341</v>
+        <v>3.398</v>
       </c>
       <c r="F488" t="n">
-        <v>4.997</v>
+        <v>4.986</v>
       </c>
       <c r="G488" t="n">
-        <v>5.611</v>
+        <v>5.56</v>
       </c>
       <c r="H488" t="n">
-        <v>6.89</v>
+        <v>6.798</v>
       </c>
       <c r="I488" t="n">
-        <v>6.723</v>
+        <v>6.64</v>
       </c>
       <c r="J488" t="n">
-        <v>7.19</v>
+        <v>7.092</v>
       </c>
       <c r="K488" t="n">
         <v>7.236</v>
       </c>
       <c r="L488" t="n">
-        <v>7.259</v>
+        <v>7.159</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B489" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="C489" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D489" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E489" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="F489" t="n">
+        <v>5.035</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5.614</v>
+      </c>
+      <c r="H489" t="n">
+        <v>6.797</v>
+      </c>
+      <c r="I489" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="J489" t="n">
+        <v>7.154</v>
+      </c>
+      <c r="K489" t="n">
+        <v>7.235</v>
+      </c>
+      <c r="L489" t="n">
+        <v>7.168</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L489"/>
+  <dimension ref="A1:L490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19045,6 +19045,44 @@
         <v>7.168</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B490" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="C490" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D490" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E490" t="n">
+        <v>3.519</v>
+      </c>
+      <c r="F490" t="n">
+        <v>5.048</v>
+      </c>
+      <c r="G490" t="n">
+        <v>5.628</v>
+      </c>
+      <c r="H490" t="n">
+        <v>6.855</v>
+      </c>
+      <c r="I490" t="n">
+        <v>6.805</v>
+      </c>
+      <c r="J490" t="n">
+        <v>7.288</v>
+      </c>
+      <c r="K490" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="L490" t="n">
+        <v>7.189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L490"/>
+  <dimension ref="A1:L491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19062,25 +19062,63 @@
         <v>3.519</v>
       </c>
       <c r="F490" t="n">
-        <v>5.048</v>
+        <v>5.056</v>
       </c>
       <c r="G490" t="n">
         <v>5.628</v>
       </c>
       <c r="H490" t="n">
-        <v>6.855</v>
+        <v>6.764</v>
       </c>
       <c r="I490" t="n">
-        <v>6.805</v>
+        <v>6.72</v>
       </c>
       <c r="J490" t="n">
-        <v>7.288</v>
+        <v>7.188</v>
       </c>
       <c r="K490" t="n">
         <v>7.254</v>
       </c>
       <c r="L490" t="n">
         <v>7.189</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B491" t="n">
+        <v>3.254</v>
+      </c>
+      <c r="C491" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D491" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E491" t="n">
+        <v>3.434</v>
+      </c>
+      <c r="F491" t="n">
+        <v>5.039</v>
+      </c>
+      <c r="G491" t="n">
+        <v>5.603</v>
+      </c>
+      <c r="H491" t="n">
+        <v>6.731</v>
+      </c>
+      <c r="I491" t="n">
+        <v>6.713</v>
+      </c>
+      <c r="J491" t="n">
+        <v>7.141</v>
+      </c>
+      <c r="K491" t="n">
+        <v>7.303</v>
+      </c>
+      <c r="L491" t="n">
+        <v>7.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L491"/>
+  <dimension ref="A1:L492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19121,6 +19121,44 @@
         <v>7.21</v>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B492" t="n">
+        <v>3.254</v>
+      </c>
+      <c r="C492" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D492" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E492" t="n">
+        <v>3.408</v>
+      </c>
+      <c r="F492" t="n">
+        <v>5.044</v>
+      </c>
+      <c r="G492" t="n">
+        <v>5.612</v>
+      </c>
+      <c r="H492" t="n">
+        <v>6.819</v>
+      </c>
+      <c r="I492" t="n">
+        <v>6.784</v>
+      </c>
+      <c r="J492" t="n">
+        <v>7.227</v>
+      </c>
+      <c r="K492" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="L492" t="n">
+        <v>7.324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L492"/>
+  <dimension ref="A1:L493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19135,28 +19135,66 @@
         <v>3.45</v>
       </c>
       <c r="E492" t="n">
-        <v>3.408</v>
+        <v>3.448</v>
       </c>
       <c r="F492" t="n">
-        <v>5.044</v>
+        <v>5.023</v>
       </c>
       <c r="G492" t="n">
-        <v>5.612</v>
+        <v>5.572</v>
       </c>
       <c r="H492" t="n">
-        <v>6.819</v>
+        <v>6.723</v>
       </c>
       <c r="I492" t="n">
-        <v>6.784</v>
+        <v>6.7</v>
       </c>
       <c r="J492" t="n">
+        <v>7.117</v>
+      </c>
+      <c r="K492" t="n">
+        <v>7.336</v>
+      </c>
+      <c r="L492" t="n">
+        <v>7.208</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B493" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="C493" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D493" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E493" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="F493" t="n">
+        <v>5.064</v>
+      </c>
+      <c r="G493" t="n">
+        <v>5.633</v>
+      </c>
+      <c r="H493" t="n">
+        <v>6.831</v>
+      </c>
+      <c r="I493" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J493" t="n">
         <v>7.227</v>
       </c>
-      <c r="K492" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="L492" t="n">
-        <v>7.324</v>
+      <c r="K493" t="n">
+        <v>7.391</v>
+      </c>
+      <c r="L493" t="n">
+        <v>7.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L493"/>
+  <dimension ref="A1:L494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19164,7 +19164,7 @@
         <v>44635</v>
       </c>
       <c r="B493" t="n">
-        <v>2.913</v>
+        <v>3.269</v>
       </c>
       <c r="C493" t="n">
         <v>3.33</v>
@@ -19173,28 +19173,66 @@
         <v>3.45</v>
       </c>
       <c r="E493" t="n">
-        <v>3.391</v>
+        <v>3.434</v>
       </c>
       <c r="F493" t="n">
-        <v>5.064</v>
+        <v>5.031</v>
       </c>
       <c r="G493" t="n">
-        <v>5.633</v>
+        <v>5.58</v>
       </c>
       <c r="H493" t="n">
-        <v>6.831</v>
+        <v>6.734</v>
       </c>
       <c r="I493" t="n">
-        <v>6.8</v>
+        <v>6.711</v>
       </c>
       <c r="J493" t="n">
-        <v>7.227</v>
+        <v>7.117</v>
       </c>
       <c r="K493" t="n">
-        <v>7.391</v>
+        <v>7.29</v>
       </c>
       <c r="L493" t="n">
-        <v>7.33</v>
+        <v>7.212</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B494" t="n">
+        <v>3.269</v>
+      </c>
+      <c r="C494" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D494" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E494" t="n">
+        <v>3.401</v>
+      </c>
+      <c r="F494" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="G494" t="n">
+        <v>5.639</v>
+      </c>
+      <c r="H494" t="n">
+        <v>6.851</v>
+      </c>
+      <c r="I494" t="n">
+        <v>6.815</v>
+      </c>
+      <c r="J494" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="K494" t="n">
+        <v>7.347</v>
+      </c>
+      <c r="L494" t="n">
+        <v>7.332</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L494"/>
+  <dimension ref="A1:L495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19211,28 +19211,66 @@
         <v>3.45</v>
       </c>
       <c r="E494" t="n">
-        <v>3.401</v>
+        <v>3.477</v>
       </c>
       <c r="F494" t="n">
-        <v>5.069</v>
+        <v>5.042</v>
       </c>
       <c r="G494" t="n">
-        <v>5.639</v>
+        <v>5.584</v>
       </c>
       <c r="H494" t="n">
-        <v>6.851</v>
+        <v>6.749</v>
       </c>
       <c r="I494" t="n">
-        <v>6.815</v>
+        <v>6.718</v>
       </c>
       <c r="J494" t="n">
-        <v>7.261</v>
+        <v>7.149</v>
       </c>
       <c r="K494" t="n">
-        <v>7.347</v>
+        <v>7.247</v>
       </c>
       <c r="L494" t="n">
-        <v>7.332</v>
+        <v>7.222</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B495" t="n">
+        <v>3.325</v>
+      </c>
+      <c r="C495" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D495" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E495" t="n">
+        <v>3.361</v>
+      </c>
+      <c r="F495" t="n">
+        <v>5.052</v>
+      </c>
+      <c r="G495" t="n">
+        <v>5.659</v>
+      </c>
+      <c r="H495" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="I495" t="n">
+        <v>6.785</v>
+      </c>
+      <c r="J495" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="K495" t="n">
+        <v>7.431</v>
+      </c>
+      <c r="L495" t="n">
+        <v>7.345</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L495"/>
+  <dimension ref="A1:L496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19273,6 +19273,44 @@
         <v>7.345</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B496" t="n">
+        <v>2.051</v>
+      </c>
+      <c r="C496" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="D496" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="E496" t="n">
+        <v>3.361</v>
+      </c>
+      <c r="F496" t="n">
+        <v>5.037</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.639</v>
+      </c>
+      <c r="H496" t="n">
+        <v>6.821</v>
+      </c>
+      <c r="I496" t="n">
+        <v>6.786</v>
+      </c>
+      <c r="J496" t="n">
+        <v>7.265</v>
+      </c>
+      <c r="K496" t="n">
+        <v>7.449</v>
+      </c>
+      <c r="L496" t="n">
+        <v>7.321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -19249,28 +19249,28 @@
         <v>3.45</v>
       </c>
       <c r="E495" t="n">
-        <v>3.361</v>
+        <v>3.425</v>
       </c>
       <c r="F495" t="n">
-        <v>5.052</v>
+        <v>5.018</v>
       </c>
       <c r="G495" t="n">
-        <v>5.659</v>
+        <v>5.601</v>
       </c>
       <c r="H495" t="n">
-        <v>6.84</v>
+        <v>6.742</v>
       </c>
       <c r="I495" t="n">
-        <v>6.785</v>
+        <v>6.69</v>
       </c>
       <c r="J495" t="n">
-        <v>7.27</v>
+        <v>7.159</v>
       </c>
       <c r="K495" t="n">
-        <v>7.431</v>
+        <v>7.327</v>
       </c>
       <c r="L495" t="n">
-        <v>7.345</v>
+        <v>7.233</v>
       </c>
     </row>
     <row r="496">
@@ -19278,37 +19278,37 @@
         <v>44638</v>
       </c>
       <c r="B496" t="n">
-        <v>2.051</v>
+        <v>2.1</v>
       </c>
       <c r="C496" t="n">
-        <v>2.055</v>
+        <v>2.12</v>
       </c>
       <c r="D496" t="n">
-        <v>2.089</v>
+        <v>2.15</v>
       </c>
       <c r="E496" t="n">
-        <v>3.361</v>
+        <v>3.438</v>
       </c>
       <c r="F496" t="n">
-        <v>5.037</v>
+        <v>4.998</v>
       </c>
       <c r="G496" t="n">
-        <v>5.639</v>
+        <v>5.581</v>
       </c>
       <c r="H496" t="n">
-        <v>6.821</v>
+        <v>6.723</v>
       </c>
       <c r="I496" t="n">
-        <v>6.786</v>
+        <v>6.693</v>
       </c>
       <c r="J496" t="n">
-        <v>7.265</v>
+        <v>7.153</v>
       </c>
       <c r="K496" t="n">
-        <v>7.449</v>
+        <v>7.343</v>
       </c>
       <c r="L496" t="n">
-        <v>7.321</v>
+        <v>7.202</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L496"/>
+  <dimension ref="A1:L497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19311,6 +19311,44 @@
         <v>7.202</v>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B497" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C497" t="n">
+        <v>2.074</v>
+      </c>
+      <c r="D497" t="n">
+        <v>2.201</v>
+      </c>
+      <c r="E497" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F497" t="n">
+        <v>5.034</v>
+      </c>
+      <c r="G497" t="n">
+        <v>5.648</v>
+      </c>
+      <c r="H497" t="n">
+        <v>6.811</v>
+      </c>
+      <c r="I497" t="n">
+        <v>6.776</v>
+      </c>
+      <c r="J497" t="n">
+        <v>7.274</v>
+      </c>
+      <c r="K497" t="n">
+        <v>7.422</v>
+      </c>
+      <c r="L497" t="n">
+        <v>7.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -19319,34 +19319,34 @@
         <v>2.06</v>
       </c>
       <c r="C497" t="n">
-        <v>2.074</v>
+        <v>2.15</v>
       </c>
       <c r="D497" t="n">
-        <v>2.201</v>
+        <v>2.28</v>
       </c>
       <c r="E497" t="n">
-        <v>3.4</v>
+        <v>3.447</v>
       </c>
       <c r="F497" t="n">
-        <v>5.034</v>
+        <v>5.011</v>
       </c>
       <c r="G497" t="n">
-        <v>5.648</v>
+        <v>5.597</v>
       </c>
       <c r="H497" t="n">
-        <v>6.811</v>
+        <v>6.72</v>
       </c>
       <c r="I497" t="n">
-        <v>6.776</v>
+        <v>6.69</v>
       </c>
       <c r="J497" t="n">
-        <v>7.274</v>
+        <v>7.164</v>
       </c>
       <c r="K497" t="n">
-        <v>7.422</v>
+        <v>7.31</v>
       </c>
       <c r="L497" t="n">
-        <v>7.31</v>
+        <v>7.192</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L497"/>
+  <dimension ref="A1:L498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19346,7 +19346,45 @@
         <v>7.31</v>
       </c>
       <c r="L497" t="n">
-        <v>7.192</v>
+        <v>7.222</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B498" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C498" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D498" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E498" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="F498" t="n">
+        <v>5.047</v>
+      </c>
+      <c r="G498" t="n">
+        <v>5.648</v>
+      </c>
+      <c r="H498" t="n">
+        <v>6.834</v>
+      </c>
+      <c r="I498" t="n">
+        <v>6.768</v>
+      </c>
+      <c r="J498" t="n">
+        <v>7.272</v>
+      </c>
+      <c r="K498" t="n">
+        <v>7.468</v>
+      </c>
+      <c r="L498" t="n">
+        <v>7.298</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -19363,25 +19363,25 @@
         <v>2.28</v>
       </c>
       <c r="E498" t="n">
-        <v>3.474</v>
+        <v>3.623</v>
       </c>
       <c r="F498" t="n">
-        <v>5.047</v>
+        <v>5.064</v>
       </c>
       <c r="G498" t="n">
-        <v>5.648</v>
+        <v>5.637</v>
       </c>
       <c r="H498" t="n">
-        <v>6.834</v>
+        <v>6.741</v>
       </c>
       <c r="I498" t="n">
-        <v>6.768</v>
+        <v>6.689</v>
       </c>
       <c r="J498" t="n">
-        <v>7.272</v>
+        <v>7.174</v>
       </c>
       <c r="K498" t="n">
-        <v>7.468</v>
+        <v>7.358</v>
       </c>
       <c r="L498" t="n">
         <v>7.298</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L498"/>
+  <dimension ref="A1:L499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19387,6 +19387,44 @@
         <v>7.298</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B499" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C499" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D499" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E499" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="F499" t="n">
+        <v>5.016</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H499" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="I499" t="n">
+        <v>6.655</v>
+      </c>
+      <c r="J499" t="n">
+        <v>7.174</v>
+      </c>
+      <c r="K499" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="L499" t="n">
+        <v>7.274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L499"/>
+  <dimension ref="A1:L500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19425,6 +19425,44 @@
         <v>7.274</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B500" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C500" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D500" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E500" t="n">
+        <v>3.519</v>
+      </c>
+      <c r="F500" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="G500" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="H500" t="n">
+        <v>6.817</v>
+      </c>
+      <c r="I500" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="J500" t="n">
+        <v>7.178</v>
+      </c>
+      <c r="K500" t="n">
+        <v>7.429</v>
+      </c>
+      <c r="L500" t="n">
+        <v>7.266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L500"/>
+  <dimension ref="A1:L501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19448,7 +19448,7 @@
         <v>5.58</v>
       </c>
       <c r="H500" t="n">
-        <v>6.817</v>
+        <v>6.715</v>
       </c>
       <c r="I500" t="n">
         <v>6.66</v>
@@ -19457,10 +19457,48 @@
         <v>7.178</v>
       </c>
       <c r="K500" t="n">
-        <v>7.429</v>
+        <v>7.339</v>
       </c>
       <c r="L500" t="n">
         <v>7.266</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B501" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C501" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D501" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E501" t="n">
+        <v>3.503</v>
+      </c>
+      <c r="F501" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5.643</v>
+      </c>
+      <c r="H501" t="n">
+        <v>6.849</v>
+      </c>
+      <c r="I501" t="n">
+        <v>6.753</v>
+      </c>
+      <c r="J501" t="n">
+        <v>7.319</v>
+      </c>
+      <c r="K501" t="n">
+        <v>7.438</v>
+      </c>
+      <c r="L501" t="n">
+        <v>7.401</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L501"/>
+  <dimension ref="A1:L502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19477,28 +19477,66 @@
         <v>2.28</v>
       </c>
       <c r="E501" t="n">
-        <v>3.503</v>
+        <v>3.551</v>
       </c>
       <c r="F501" t="n">
-        <v>5.054</v>
+        <v>5.039</v>
       </c>
       <c r="G501" t="n">
-        <v>5.643</v>
+        <v>5.607</v>
       </c>
       <c r="H501" t="n">
-        <v>6.849</v>
+        <v>6.76</v>
       </c>
       <c r="I501" t="n">
-        <v>6.753</v>
+        <v>6.675</v>
       </c>
       <c r="J501" t="n">
-        <v>7.319</v>
+        <v>7.211</v>
       </c>
       <c r="K501" t="n">
-        <v>7.438</v>
+        <v>7.343</v>
       </c>
       <c r="L501" t="n">
-        <v>7.401</v>
+        <v>7.293</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B502" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C502" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D502" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E502" t="n">
+        <v>3.542</v>
+      </c>
+      <c r="F502" t="n">
+        <v>5.081</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5.668</v>
+      </c>
+      <c r="H502" t="n">
+        <v>6.852</v>
+      </c>
+      <c r="I502" t="n">
+        <v>6.755</v>
+      </c>
+      <c r="J502" t="n">
+        <v>7.352</v>
+      </c>
+      <c r="K502" t="n">
+        <v>7.443</v>
+      </c>
+      <c r="L502" t="n">
+        <v>7.405</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -19515,28 +19515,28 @@
         <v>2.28</v>
       </c>
       <c r="E502" t="n">
-        <v>3.542</v>
+        <v>3.604</v>
       </c>
       <c r="F502" t="n">
-        <v>5.081</v>
+        <v>5.058</v>
       </c>
       <c r="G502" t="n">
-        <v>5.668</v>
+        <v>5.613</v>
       </c>
       <c r="H502" t="n">
-        <v>6.852</v>
+        <v>6.751</v>
       </c>
       <c r="I502" t="n">
-        <v>6.755</v>
+        <v>6.677</v>
       </c>
       <c r="J502" t="n">
-        <v>7.352</v>
+        <v>7.241</v>
       </c>
       <c r="K502" t="n">
-        <v>7.443</v>
+        <v>7.345</v>
       </c>
       <c r="L502" t="n">
-        <v>7.405</v>
+        <v>7.297</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L502"/>
+  <dimension ref="A1:L503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19539,6 +19539,44 @@
         <v>7.297</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B503" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C503" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D503" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E503" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="F503" t="n">
+        <v>5.098</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5.652</v>
+      </c>
+      <c r="H503" t="n">
+        <v>6.755</v>
+      </c>
+      <c r="I503" t="n">
+        <v>6.691</v>
+      </c>
+      <c r="J503" t="n">
+        <v>7.218</v>
+      </c>
+      <c r="K503" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="L503" t="n">
+        <v>7.318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -19544,37 +19544,37 @@
         <v>44652</v>
       </c>
       <c r="B503" t="n">
-        <v>2.06</v>
+        <v>1.963</v>
       </c>
       <c r="C503" t="n">
-        <v>2.15</v>
+        <v>2.065</v>
       </c>
       <c r="D503" t="n">
-        <v>2.28</v>
+        <v>2.204</v>
       </c>
       <c r="E503" t="n">
-        <v>3.571</v>
+        <v>3.492</v>
       </c>
       <c r="F503" t="n">
-        <v>5.098</v>
+        <v>5.096</v>
       </c>
       <c r="G503" t="n">
-        <v>5.652</v>
+        <v>5.681</v>
       </c>
       <c r="H503" t="n">
-        <v>6.755</v>
+        <v>6.849</v>
       </c>
       <c r="I503" t="n">
-        <v>6.691</v>
+        <v>6.769</v>
       </c>
       <c r="J503" t="n">
-        <v>7.218</v>
+        <v>7.337</v>
       </c>
       <c r="K503" t="n">
-        <v>7.344</v>
+        <v>7.444</v>
       </c>
       <c r="L503" t="n">
-        <v>7.318</v>
+        <v>7.423</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -19544,37 +19544,37 @@
         <v>44652</v>
       </c>
       <c r="B503" t="n">
-        <v>1.963</v>
+        <v>2.06</v>
       </c>
       <c r="C503" t="n">
-        <v>2.065</v>
+        <v>2.15</v>
       </c>
       <c r="D503" t="n">
-        <v>2.204</v>
+        <v>2.28</v>
       </c>
       <c r="E503" t="n">
-        <v>3.492</v>
+        <v>3.571</v>
       </c>
       <c r="F503" t="n">
-        <v>5.096</v>
+        <v>5.098</v>
       </c>
       <c r="G503" t="n">
-        <v>5.681</v>
+        <v>5.652</v>
       </c>
       <c r="H503" t="n">
-        <v>6.849</v>
+        <v>6.755</v>
       </c>
       <c r="I503" t="n">
-        <v>6.769</v>
+        <v>6.691</v>
       </c>
       <c r="J503" t="n">
-        <v>7.337</v>
+        <v>7.218</v>
       </c>
       <c r="K503" t="n">
-        <v>7.444</v>
+        <v>7.344</v>
       </c>
       <c r="L503" t="n">
-        <v>7.423</v>
+        <v>7.318</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L503"/>
+  <dimension ref="A1:L504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19577,6 +19577,44 @@
         <v>7.318</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B504" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C504" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D504" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E504" t="n">
+        <v>3.563</v>
+      </c>
+      <c r="F504" t="n">
+        <v>5.135</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.649</v>
+      </c>
+      <c r="H504" t="n">
+        <v>6.851</v>
+      </c>
+      <c r="I504" t="n">
+        <v>6.764</v>
+      </c>
+      <c r="J504" t="n">
+        <v>7.341</v>
+      </c>
+      <c r="K504" t="n">
+        <v>7.438</v>
+      </c>
+      <c r="L504" t="n">
+        <v>7.425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L504"/>
+  <dimension ref="A1:L505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19591,28 +19591,66 @@
         <v>2.28</v>
       </c>
       <c r="E504" t="n">
-        <v>3.563</v>
+        <v>3.654</v>
       </c>
       <c r="F504" t="n">
-        <v>5.135</v>
+        <v>5.122</v>
       </c>
       <c r="G504" t="n">
         <v>5.649</v>
       </c>
       <c r="H504" t="n">
+        <v>6.751</v>
+      </c>
+      <c r="I504" t="n">
+        <v>6.685</v>
+      </c>
+      <c r="J504" t="n">
+        <v>7.229</v>
+      </c>
+      <c r="K504" t="n">
+        <v>7.339</v>
+      </c>
+      <c r="L504" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B505" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C505" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D505" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E505" t="n">
+        <v>3.606</v>
+      </c>
+      <c r="F505" t="n">
+        <v>5.142</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.696</v>
+      </c>
+      <c r="H505" t="n">
         <v>6.851</v>
       </c>
-      <c r="I504" t="n">
-        <v>6.764</v>
-      </c>
-      <c r="J504" t="n">
-        <v>7.341</v>
-      </c>
-      <c r="K504" t="n">
-        <v>7.438</v>
-      </c>
-      <c r="L504" t="n">
-        <v>7.425</v>
+      <c r="I505" t="n">
+        <v>6.778</v>
+      </c>
+      <c r="J505" t="n">
+        <v>7.324</v>
+      </c>
+      <c r="K505" t="n">
+        <v>7.436</v>
+      </c>
+      <c r="L505" t="n">
+        <v>7.412</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L505"/>
+  <dimension ref="A1:L506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19629,28 +19629,66 @@
         <v>2.28</v>
       </c>
       <c r="E505" t="n">
-        <v>3.606</v>
+        <v>3.683</v>
       </c>
       <c r="F505" t="n">
-        <v>5.142</v>
+        <v>5.128</v>
       </c>
       <c r="G505" t="n">
-        <v>5.696</v>
+        <v>5.654</v>
       </c>
       <c r="H505" t="n">
-        <v>6.851</v>
+        <v>6.749</v>
       </c>
       <c r="I505" t="n">
-        <v>6.778</v>
+        <v>6.693</v>
       </c>
       <c r="J505" t="n">
-        <v>7.324</v>
+        <v>7.214</v>
       </c>
       <c r="K505" t="n">
-        <v>7.436</v>
+        <v>7.336</v>
       </c>
       <c r="L505" t="n">
-        <v>7.412</v>
+        <v>7.302</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B506" t="n">
+        <v>1.976</v>
+      </c>
+      <c r="C506" t="n">
+        <v>2.072</v>
+      </c>
+      <c r="D506" t="n">
+        <v>2.209</v>
+      </c>
+      <c r="E506" t="n">
+        <v>3.619</v>
+      </c>
+      <c r="F506" t="n">
+        <v>5.166</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.704</v>
+      </c>
+      <c r="H506" t="n">
+        <v>6.876</v>
+      </c>
+      <c r="I506" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="J506" t="n">
+        <v>7.308</v>
+      </c>
+      <c r="K506" t="n">
+        <v>7.451</v>
+      </c>
+      <c r="L506" t="n">
+        <v>7.418</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L506"/>
+  <dimension ref="A1:L507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19691,6 +19691,44 @@
         <v>7.418</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B507" t="n">
+        <v>1.981</v>
+      </c>
+      <c r="C507" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="D507" t="n">
+        <v>2.201</v>
+      </c>
+      <c r="E507" t="n">
+        <v>3.613</v>
+      </c>
+      <c r="F507" t="n">
+        <v>5.172</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5.726</v>
+      </c>
+      <c r="H507" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="I507" t="n">
+        <v>6.798</v>
+      </c>
+      <c r="J507" t="n">
+        <v>7.302</v>
+      </c>
+      <c r="K507" t="n">
+        <v>7.444</v>
+      </c>
+      <c r="L507" t="n">
+        <v>7.424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L507"/>
+  <dimension ref="A1:L508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19658,37 +19658,37 @@
         <v>44657</v>
       </c>
       <c r="B506" t="n">
-        <v>1.976</v>
+        <v>2.06</v>
       </c>
       <c r="C506" t="n">
-        <v>2.072</v>
+        <v>2.15</v>
       </c>
       <c r="D506" t="n">
-        <v>2.209</v>
+        <v>2.28</v>
       </c>
       <c r="E506" t="n">
-        <v>3.619</v>
+        <v>3.688</v>
       </c>
       <c r="F506" t="n">
-        <v>5.166</v>
+        <v>5.15</v>
       </c>
       <c r="G506" t="n">
-        <v>5.704</v>
+        <v>5.662</v>
       </c>
       <c r="H506" t="n">
-        <v>6.876</v>
+        <v>6.78</v>
       </c>
       <c r="I506" t="n">
-        <v>6.78</v>
+        <v>6.694</v>
       </c>
       <c r="J506" t="n">
-        <v>7.308</v>
+        <v>7.2</v>
       </c>
       <c r="K506" t="n">
-        <v>7.451</v>
+        <v>7.342</v>
       </c>
       <c r="L506" t="n">
-        <v>7.418</v>
+        <v>7.309</v>
       </c>
     </row>
     <row r="507">
@@ -19696,37 +19696,75 @@
         <v>44658</v>
       </c>
       <c r="B507" t="n">
-        <v>1.981</v>
+        <v>2.06</v>
       </c>
       <c r="C507" t="n">
-        <v>2.075</v>
+        <v>2.15</v>
       </c>
       <c r="D507" t="n">
-        <v>2.201</v>
+        <v>2.28</v>
       </c>
       <c r="E507" t="n">
-        <v>3.613</v>
+        <v>3.689</v>
       </c>
       <c r="F507" t="n">
-        <v>5.172</v>
+        <v>5.153</v>
       </c>
       <c r="G507" t="n">
-        <v>5.726</v>
+        <v>5.698</v>
       </c>
       <c r="H507" t="n">
-        <v>6.89</v>
+        <v>6.792</v>
       </c>
       <c r="I507" t="n">
-        <v>6.798</v>
+        <v>6.713</v>
       </c>
       <c r="J507" t="n">
-        <v>7.302</v>
+        <v>7.201</v>
       </c>
       <c r="K507" t="n">
-        <v>7.444</v>
+        <v>7.336</v>
       </c>
       <c r="L507" t="n">
-        <v>7.424</v>
+        <v>7.319</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B508" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C508" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D508" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E508" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="F508" t="n">
+        <v>5.156</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5.695</v>
+      </c>
+      <c r="H508" t="n">
+        <v>6.789</v>
+      </c>
+      <c r="I508" t="n">
+        <v>6.722</v>
+      </c>
+      <c r="J508" t="n">
+        <v>7.172</v>
+      </c>
+      <c r="K508" t="n">
+        <v>7.334</v>
+      </c>
+      <c r="L508" t="n">
+        <v>7.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L508"/>
+  <dimension ref="A1:L509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19767,6 +19767,44 @@
         <v>7.31</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B509" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C509" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D509" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E509" t="n">
+        <v>3.707</v>
+      </c>
+      <c r="F509" t="n">
+        <v>5.207</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5.763</v>
+      </c>
+      <c r="H509" t="n">
+        <v>6.935</v>
+      </c>
+      <c r="I509" t="n">
+        <v>6.825</v>
+      </c>
+      <c r="J509" t="n">
+        <v>7.286</v>
+      </c>
+      <c r="K509" t="n">
+        <v>7.448</v>
+      </c>
+      <c r="L509" t="n">
+        <v>7.419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L509"/>
+  <dimension ref="A1:L510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19781,28 +19781,66 @@
         <v>2.28</v>
       </c>
       <c r="E509" t="n">
-        <v>3.707</v>
+        <v>3.807</v>
       </c>
       <c r="F509" t="n">
-        <v>5.207</v>
+        <v>5.184</v>
       </c>
       <c r="G509" t="n">
-        <v>5.763</v>
+        <v>5.727</v>
       </c>
       <c r="H509" t="n">
-        <v>6.935</v>
+        <v>6.834</v>
       </c>
       <c r="I509" t="n">
-        <v>6.825</v>
+        <v>6.741</v>
       </c>
       <c r="J509" t="n">
-        <v>7.286</v>
+        <v>7.172</v>
       </c>
       <c r="K509" t="n">
-        <v>7.448</v>
+        <v>7.344</v>
       </c>
       <c r="L509" t="n">
-        <v>7.419</v>
+        <v>7.309</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B510" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C510" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D510" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E510" t="n">
+        <v>3.813</v>
+      </c>
+      <c r="F510" t="n">
+        <v>5.235</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.821</v>
+      </c>
+      <c r="H510" t="n">
+        <v>6.972</v>
+      </c>
+      <c r="I510" t="n">
+        <v>6.853</v>
+      </c>
+      <c r="J510" t="n">
+        <v>7.313</v>
+      </c>
+      <c r="K510" t="n">
+        <v>7.456</v>
+      </c>
+      <c r="L510" t="n">
+        <v>7.431</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L510"/>
+  <dimension ref="A1:L511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19819,28 +19819,66 @@
         <v>2.28</v>
       </c>
       <c r="E510" t="n">
-        <v>3.813</v>
+        <v>3.877</v>
       </c>
       <c r="F510" t="n">
-        <v>5.235</v>
+        <v>5.21</v>
       </c>
       <c r="G510" t="n">
-        <v>5.821</v>
+        <v>5.786</v>
       </c>
       <c r="H510" t="n">
-        <v>6.972</v>
+        <v>6.876</v>
       </c>
       <c r="I510" t="n">
-        <v>6.853</v>
+        <v>6.769</v>
       </c>
       <c r="J510" t="n">
-        <v>7.313</v>
+        <v>7.208</v>
       </c>
       <c r="K510" t="n">
-        <v>7.456</v>
+        <v>7.351</v>
       </c>
       <c r="L510" t="n">
-        <v>7.431</v>
+        <v>7.319</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B511" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C511" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D511" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E511" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="F511" t="n">
+        <v>5.238</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.832</v>
+      </c>
+      <c r="H511" t="n">
+        <v>6.917</v>
+      </c>
+      <c r="I511" t="n">
+        <v>6.811</v>
+      </c>
+      <c r="J511" t="n">
+        <v>7.226</v>
+      </c>
+      <c r="K511" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="L511" t="n">
+        <v>7.322</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L511"/>
+  <dimension ref="A1:L512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19881,6 +19881,44 @@
         <v>7.322</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B512" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C512" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D512" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E512" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F512" t="n">
+        <v>5.218</v>
+      </c>
+      <c r="G512" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="H512" t="n">
+        <v>6.922</v>
+      </c>
+      <c r="I512" t="n">
+        <v>6.819</v>
+      </c>
+      <c r="J512" t="n">
+        <v>7.235</v>
+      </c>
+      <c r="K512" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="L512" t="n">
+        <v>7.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L512"/>
+  <dimension ref="A1:L513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19919,6 +19919,44 @@
         <v>7.33</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B513" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C513" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E513" t="n">
+        <v>3.779</v>
+      </c>
+      <c r="F513" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5.938</v>
+      </c>
+      <c r="H513" t="n">
+        <v>7.056</v>
+      </c>
+      <c r="I513" t="n">
+        <v>6.938</v>
+      </c>
+      <c r="J513" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K513" t="n">
+        <v>7.461</v>
+      </c>
+      <c r="L513" t="n">
+        <v>7.432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L513"/>
+  <dimension ref="A1:L514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19933,28 +19933,66 @@
         <v>2.28</v>
       </c>
       <c r="E513" t="n">
-        <v>3.779</v>
+        <v>3.92</v>
       </c>
       <c r="F513" t="n">
-        <v>5.28</v>
+        <v>5.248</v>
       </c>
       <c r="G513" t="n">
-        <v>5.938</v>
+        <v>5.881</v>
       </c>
       <c r="H513" t="n">
-        <v>7.056</v>
+        <v>6.957</v>
       </c>
       <c r="I513" t="n">
-        <v>6.938</v>
+        <v>6.846</v>
       </c>
       <c r="J513" t="n">
-        <v>7.36</v>
+        <v>7.243</v>
       </c>
       <c r="K513" t="n">
-        <v>7.461</v>
+        <v>7.354</v>
       </c>
       <c r="L513" t="n">
-        <v>7.432</v>
+        <v>7.324</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B514" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C514" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D514" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E514" t="n">
+        <v>3.967</v>
+      </c>
+      <c r="F514" t="n">
+        <v>5.264</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.964</v>
+      </c>
+      <c r="H514" t="n">
+        <v>6.977</v>
+      </c>
+      <c r="I514" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="J514" t="n">
+        <v>7.251</v>
+      </c>
+      <c r="K514" t="n">
+        <v>7.354</v>
+      </c>
+      <c r="L514" t="n">
+        <v>7.325</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L514"/>
+  <dimension ref="A1:L515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19995,6 +19995,44 @@
         <v>7.325</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B515" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C515" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E515" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="F515" t="n">
+        <v>5.352</v>
+      </c>
+      <c r="G515" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="H515" t="n">
+        <v>7.084</v>
+      </c>
+      <c r="I515" t="n">
+        <v>6.955</v>
+      </c>
+      <c r="J515" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="K515" t="n">
+        <v>7.468</v>
+      </c>
+      <c r="L515" t="n">
+        <v>7.442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L515"/>
+  <dimension ref="A1:L516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20009,28 +20009,66 @@
         <v>2.28</v>
       </c>
       <c r="E515" t="n">
-        <v>3.961</v>
+        <v>4.062</v>
       </c>
       <c r="F515" t="n">
-        <v>5.352</v>
+        <v>5.324</v>
       </c>
       <c r="G515" t="n">
-        <v>6.037</v>
+        <v>5.998</v>
       </c>
       <c r="H515" t="n">
-        <v>7.084</v>
+        <v>6.978</v>
       </c>
       <c r="I515" t="n">
-        <v>6.955</v>
+        <v>6.866</v>
       </c>
       <c r="J515" t="n">
-        <v>7.377</v>
+        <v>7.26</v>
       </c>
       <c r="K515" t="n">
-        <v>7.468</v>
+        <v>7.368</v>
       </c>
       <c r="L515" t="n">
-        <v>7.442</v>
+        <v>7.331</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B516" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C516" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E516" t="n">
+        <v>4.096</v>
+      </c>
+      <c r="F516" t="n">
+        <v>5.379</v>
+      </c>
+      <c r="G516" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="H516" t="n">
+        <v>6.978</v>
+      </c>
+      <c r="I516" t="n">
+        <v>6.919</v>
+      </c>
+      <c r="J516" t="n">
+        <v>7.271</v>
+      </c>
+      <c r="K516" t="n">
+        <v>7.369</v>
+      </c>
+      <c r="L516" t="n">
+        <v>7.342</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L516"/>
+  <dimension ref="A1:L517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20071,6 +20071,44 @@
         <v>7.342</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B517" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C517" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E517" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="F517" t="n">
+        <v>5.409</v>
+      </c>
+      <c r="G517" t="n">
+        <v>6.133</v>
+      </c>
+      <c r="H517" t="n">
+        <v>6.976</v>
+      </c>
+      <c r="I517" t="n">
+        <v>6.953</v>
+      </c>
+      <c r="J517" t="n">
+        <v>7.274</v>
+      </c>
+      <c r="K517" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="L517" t="n">
+        <v>7.341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L517"/>
+  <dimension ref="A1:L518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20109,6 +20109,44 @@
         <v>7.341</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B518" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="C518" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E518" t="n">
+        <v>4.231</v>
+      </c>
+      <c r="F518" t="n">
+        <v>5.509</v>
+      </c>
+      <c r="G518" t="n">
+        <v>6.249</v>
+      </c>
+      <c r="H518" t="n">
+        <v>7.043</v>
+      </c>
+      <c r="I518" t="n">
+        <v>7.014</v>
+      </c>
+      <c r="J518" t="n">
+        <v>7.406</v>
+      </c>
+      <c r="K518" t="n">
+        <v>7.469</v>
+      </c>
+      <c r="L518" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L518"/>
+  <dimension ref="A1:L519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20114,13 +20114,13 @@
         <v>44676</v>
       </c>
       <c r="B518" t="n">
-        <v>2.045</v>
+        <v>2.11</v>
       </c>
       <c r="C518" t="n">
-        <v>2.124</v>
+        <v>2.19</v>
       </c>
       <c r="D518" t="n">
-        <v>2.204</v>
+        <v>2.28</v>
       </c>
       <c r="E518" t="n">
         <v>4.231</v>
@@ -20141,10 +20141,48 @@
         <v>7.406</v>
       </c>
       <c r="K518" t="n">
-        <v>7.469</v>
+        <v>7.383</v>
       </c>
       <c r="L518" t="n">
         <v>7.36</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B519" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C519" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D519" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E519" t="n">
+        <v>4.148</v>
+      </c>
+      <c r="F519" t="n">
+        <v>5.612</v>
+      </c>
+      <c r="G519" t="n">
+        <v>6.376</v>
+      </c>
+      <c r="H519" t="n">
+        <v>7.123</v>
+      </c>
+      <c r="I519" t="n">
+        <v>7.133</v>
+      </c>
+      <c r="J519" t="n">
+        <v>7.409</v>
+      </c>
+      <c r="K519" t="n">
+        <v>7.474</v>
+      </c>
+      <c r="L519" t="n">
+        <v>7.472</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20129,7 +20129,7 @@
         <v>5.509</v>
       </c>
       <c r="G518" t="n">
-        <v>6.249</v>
+        <v>6.194</v>
       </c>
       <c r="H518" t="n">
         <v>7.043</v>
@@ -20138,7 +20138,7 @@
         <v>7.014</v>
       </c>
       <c r="J518" t="n">
-        <v>7.406</v>
+        <v>7.298</v>
       </c>
       <c r="K518" t="n">
         <v>7.383</v>
@@ -20164,22 +20164,22 @@
         <v>4.148</v>
       </c>
       <c r="F519" t="n">
-        <v>5.612</v>
+        <v>5.599</v>
       </c>
       <c r="G519" t="n">
-        <v>6.376</v>
+        <v>6.31</v>
       </c>
       <c r="H519" t="n">
         <v>7.123</v>
       </c>
       <c r="I519" t="n">
-        <v>7.133</v>
+        <v>7.044</v>
       </c>
       <c r="J519" t="n">
-        <v>7.409</v>
+        <v>7.293</v>
       </c>
       <c r="K519" t="n">
-        <v>7.474</v>
+        <v>7.375</v>
       </c>
       <c r="L519" t="n">
         <v>7.472</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L519"/>
+  <dimension ref="A1:L520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20185,6 +20185,44 @@
         <v>7.472</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B520" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="C520" t="n">
+        <v>2.115</v>
+      </c>
+      <c r="D520" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E520" t="n">
+        <v>4.268</v>
+      </c>
+      <c r="F520" t="n">
+        <v>5.715</v>
+      </c>
+      <c r="G520" t="n">
+        <v>6.384</v>
+      </c>
+      <c r="H520" t="n">
+        <v>7.095</v>
+      </c>
+      <c r="I520" t="n">
+        <v>7.142</v>
+      </c>
+      <c r="J520" t="n">
+        <v>7.407</v>
+      </c>
+      <c r="K520" t="n">
+        <v>7.478</v>
+      </c>
+      <c r="L520" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20190,10 +20190,10 @@
         <v>44679</v>
       </c>
       <c r="B520" t="n">
-        <v>2.063</v>
+        <v>2.11</v>
       </c>
       <c r="C520" t="n">
-        <v>2.115</v>
+        <v>2.19</v>
       </c>
       <c r="D520" t="n">
         <v>2.28</v>
@@ -20205,10 +20205,10 @@
         <v>5.715</v>
       </c>
       <c r="G520" t="n">
-        <v>6.384</v>
+        <v>6.315</v>
       </c>
       <c r="H520" t="n">
-        <v>7.095</v>
+        <v>6.998</v>
       </c>
       <c r="I520" t="n">
         <v>7.142</v>
@@ -20217,10 +20217,10 @@
         <v>7.407</v>
       </c>
       <c r="K520" t="n">
-        <v>7.478</v>
+        <v>7.383</v>
       </c>
       <c r="L520" t="n">
-        <v>7.46</v>
+        <v>7.348</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20126,7 +20126,7 @@
         <v>4.231</v>
       </c>
       <c r="F518" t="n">
-        <v>5.509</v>
+        <v>5.516</v>
       </c>
       <c r="G518" t="n">
         <v>6.194</v>
@@ -20161,7 +20161,7 @@
         <v>2.28</v>
       </c>
       <c r="E519" t="n">
-        <v>4.148</v>
+        <v>4.263</v>
       </c>
       <c r="F519" t="n">
         <v>5.599</v>
@@ -20202,7 +20202,7 @@
         <v>4.268</v>
       </c>
       <c r="F520" t="n">
-        <v>5.715</v>
+        <v>5.693</v>
       </c>
       <c r="G520" t="n">
         <v>6.315</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20190,10 +20190,10 @@
         <v>44679</v>
       </c>
       <c r="B520" t="n">
-        <v>2.11</v>
+        <v>2.063</v>
       </c>
       <c r="C520" t="n">
-        <v>2.19</v>
+        <v>2.115</v>
       </c>
       <c r="D520" t="n">
         <v>2.28</v>
@@ -20202,25 +20202,25 @@
         <v>4.268</v>
       </c>
       <c r="F520" t="n">
-        <v>5.693</v>
+        <v>5.715</v>
       </c>
       <c r="G520" t="n">
-        <v>6.315</v>
+        <v>6.384</v>
       </c>
       <c r="H520" t="n">
-        <v>6.998</v>
+        <v>7.095</v>
       </c>
       <c r="I520" t="n">
         <v>7.142</v>
       </c>
       <c r="J520" t="n">
-        <v>7.407</v>
+        <v>7.411</v>
       </c>
       <c r="K520" t="n">
-        <v>7.383</v>
+        <v>7.478</v>
       </c>
       <c r="L520" t="n">
-        <v>7.348</v>
+        <v>7.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20152,7 +20152,7 @@
         <v>44677</v>
       </c>
       <c r="B519" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="C519" t="n">
         <v>2.19</v>
@@ -20182,7 +20182,7 @@
         <v>7.375</v>
       </c>
       <c r="L519" t="n">
-        <v>7.472</v>
+        <v>7.358</v>
       </c>
     </row>
     <row r="520">
@@ -20193,7 +20193,7 @@
         <v>2.063</v>
       </c>
       <c r="C520" t="n">
-        <v>2.115</v>
+        <v>2.19</v>
       </c>
       <c r="D520" t="n">
         <v>2.28</v>
@@ -20202,19 +20202,19 @@
         <v>4.268</v>
       </c>
       <c r="F520" t="n">
-        <v>5.715</v>
+        <v>5.693</v>
       </c>
       <c r="G520" t="n">
-        <v>6.384</v>
+        <v>6.315</v>
       </c>
       <c r="H520" t="n">
-        <v>7.095</v>
+        <v>6.998</v>
       </c>
       <c r="I520" t="n">
         <v>7.142</v>
       </c>
       <c r="J520" t="n">
-        <v>7.411</v>
+        <v>7.299</v>
       </c>
       <c r="K520" t="n">
         <v>7.478</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20170,7 +20170,7 @@
         <v>6.31</v>
       </c>
       <c r="H519" t="n">
-        <v>7.123</v>
+        <v>7.024</v>
       </c>
       <c r="I519" t="n">
         <v>7.044</v>
@@ -20190,7 +20190,7 @@
         <v>44679</v>
       </c>
       <c r="B520" t="n">
-        <v>2.063</v>
+        <v>2.11</v>
       </c>
       <c r="C520" t="n">
         <v>2.19</v>
@@ -20199,7 +20199,7 @@
         <v>2.28</v>
       </c>
       <c r="E520" t="n">
-        <v>4.268</v>
+        <v>4.382</v>
       </c>
       <c r="F520" t="n">
         <v>5.693</v>
@@ -20211,7 +20211,7 @@
         <v>6.998</v>
       </c>
       <c r="I520" t="n">
-        <v>7.142</v>
+        <v>7.051</v>
       </c>
       <c r="J520" t="n">
         <v>7.299</v>
@@ -20220,7 +20220,7 @@
         <v>7.478</v>
       </c>
       <c r="L520" t="n">
-        <v>7.46</v>
+        <v>7.348</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20217,7 +20217,7 @@
         <v>7.299</v>
       </c>
       <c r="K520" t="n">
-        <v>7.478</v>
+        <v>7.383</v>
       </c>
       <c r="L520" t="n">
         <v>7.348</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20190,37 +20190,37 @@
         <v>44679</v>
       </c>
       <c r="B520" t="n">
-        <v>2.11</v>
+        <v>2.063</v>
       </c>
       <c r="C520" t="n">
-        <v>2.19</v>
+        <v>2.115</v>
       </c>
       <c r="D520" t="n">
         <v>2.28</v>
       </c>
       <c r="E520" t="n">
-        <v>4.382</v>
+        <v>4.268</v>
       </c>
       <c r="F520" t="n">
-        <v>5.693</v>
+        <v>5.715</v>
       </c>
       <c r="G520" t="n">
-        <v>6.315</v>
+        <v>6.384</v>
       </c>
       <c r="H520" t="n">
-        <v>6.998</v>
+        <v>7.095</v>
       </c>
       <c r="I520" t="n">
-        <v>7.051</v>
+        <v>7.142</v>
       </c>
       <c r="J520" t="n">
-        <v>7.299</v>
+        <v>7.411</v>
       </c>
       <c r="K520" t="n">
-        <v>7.383</v>
+        <v>7.478</v>
       </c>
       <c r="L520" t="n">
-        <v>7.348</v>
+        <v>7.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L520"/>
+  <dimension ref="A1:L521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20223,6 +20223,44 @@
         <v>7.46</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B521" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="C521" t="n">
+        <v>2.106</v>
+      </c>
+      <c r="D521" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="E521" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F521" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="G521" t="n">
+        <v>6.559</v>
+      </c>
+      <c r="H521" t="n">
+        <v>7.262</v>
+      </c>
+      <c r="I521" t="n">
+        <v>7.187</v>
+      </c>
+      <c r="J521" t="n">
+        <v>7.432</v>
+      </c>
+      <c r="K521" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="L521" t="n">
+        <v>7.466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L521"/>
+  <dimension ref="A1:L522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20190,37 +20190,37 @@
         <v>44679</v>
       </c>
       <c r="B520" t="n">
-        <v>2.063</v>
+        <v>2.11</v>
       </c>
       <c r="C520" t="n">
-        <v>2.115</v>
+        <v>2.19</v>
       </c>
       <c r="D520" t="n">
         <v>2.28</v>
       </c>
       <c r="E520" t="n">
-        <v>4.268</v>
+        <v>4.382</v>
       </c>
       <c r="F520" t="n">
-        <v>5.715</v>
+        <v>5.693</v>
       </c>
       <c r="G520" t="n">
-        <v>6.384</v>
+        <v>6.315</v>
       </c>
       <c r="H520" t="n">
-        <v>7.095</v>
+        <v>6.998</v>
       </c>
       <c r="I520" t="n">
-        <v>7.142</v>
+        <v>7.051</v>
       </c>
       <c r="J520" t="n">
-        <v>7.411</v>
+        <v>7.299</v>
       </c>
       <c r="K520" t="n">
-        <v>7.478</v>
+        <v>7.383</v>
       </c>
       <c r="L520" t="n">
-        <v>7.46</v>
+        <v>7.348</v>
       </c>
     </row>
     <row r="521">
@@ -20228,37 +20228,75 @@
         <v>44690</v>
       </c>
       <c r="B521" t="n">
-        <v>2.005</v>
+        <v>2.11</v>
       </c>
       <c r="C521" t="n">
-        <v>2.106</v>
+        <v>2.19</v>
       </c>
       <c r="D521" t="n">
-        <v>2.211</v>
+        <v>2.28</v>
       </c>
       <c r="E521" t="n">
-        <v>4.45</v>
+        <v>4.647</v>
       </c>
       <c r="F521" t="n">
-        <v>5.86</v>
+        <v>5.861</v>
       </c>
       <c r="G521" t="n">
-        <v>6.559</v>
+        <v>6.485</v>
       </c>
       <c r="H521" t="n">
-        <v>7.262</v>
+        <v>7.17</v>
       </c>
       <c r="I521" t="n">
-        <v>7.187</v>
+        <v>7.1</v>
       </c>
       <c r="J521" t="n">
-        <v>7.432</v>
+        <v>7.323</v>
       </c>
       <c r="K521" t="n">
-        <v>7.49</v>
+        <v>7.42</v>
       </c>
       <c r="L521" t="n">
-        <v>7.466</v>
+        <v>7.359</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B522" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D522" t="n">
+        <v>2.799</v>
+      </c>
+      <c r="E522" t="n">
+        <v>4.457</v>
+      </c>
+      <c r="F522" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G522" t="n">
+        <v>6.692</v>
+      </c>
+      <c r="H522" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="I522" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J522" t="n">
+        <v>7.541</v>
+      </c>
+      <c r="K522" t="n">
+        <v>7.531</v>
+      </c>
+      <c r="L522" t="n">
+        <v>7.481</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L522"/>
+  <dimension ref="A1:L523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20275,28 +20275,66 @@
         <v>2.799</v>
       </c>
       <c r="E522" t="n">
-        <v>4.457</v>
+        <v>4.619</v>
       </c>
       <c r="F522" t="n">
-        <v>6.17</v>
+        <v>6.187</v>
       </c>
       <c r="G522" t="n">
-        <v>6.692</v>
+        <v>6.624</v>
       </c>
       <c r="H522" t="n">
-        <v>7.42</v>
+        <v>7.33</v>
       </c>
       <c r="I522" t="n">
-        <v>7.35</v>
+        <v>7.263</v>
       </c>
       <c r="J522" t="n">
-        <v>7.541</v>
+        <v>7.43</v>
       </c>
       <c r="K522" t="n">
-        <v>7.531</v>
+        <v>7.438</v>
       </c>
       <c r="L522" t="n">
         <v>7.481</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B523" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C523" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D523" t="n">
+        <v>2.799</v>
+      </c>
+      <c r="E523" t="n">
+        <v>4.629</v>
+      </c>
+      <c r="F523" t="n">
+        <v>6.547</v>
+      </c>
+      <c r="G523" t="n">
+        <v>7.013</v>
+      </c>
+      <c r="H523" t="n">
+        <v>7.523</v>
+      </c>
+      <c r="I523" t="n">
+        <v>7.464</v>
+      </c>
+      <c r="J523" t="n">
+        <v>7.635</v>
+      </c>
+      <c r="K523" t="n">
+        <v>7.448</v>
+      </c>
+      <c r="L523" t="n">
+        <v>7.533</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L523"/>
+  <dimension ref="A1:L524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20272,7 +20272,7 @@
         <v>2.19</v>
       </c>
       <c r="D522" t="n">
-        <v>2.799</v>
+        <v>3.146</v>
       </c>
       <c r="E522" t="n">
         <v>4.619</v>
@@ -20310,31 +20310,69 @@
         <v>2.19</v>
       </c>
       <c r="D523" t="n">
-        <v>2.799</v>
+        <v>3.146</v>
       </c>
       <c r="E523" t="n">
-        <v>4.629</v>
+        <v>4.749</v>
       </c>
       <c r="F523" t="n">
-        <v>6.547</v>
+        <v>6.494</v>
       </c>
       <c r="G523" t="n">
-        <v>7.013</v>
+        <v>6.832</v>
       </c>
       <c r="H523" t="n">
-        <v>7.523</v>
+        <v>7.419</v>
       </c>
       <c r="I523" t="n">
-        <v>7.464</v>
+        <v>7.355</v>
       </c>
       <c r="J523" t="n">
-        <v>7.635</v>
+        <v>7.516</v>
       </c>
       <c r="K523" t="n">
         <v>7.448</v>
       </c>
       <c r="L523" t="n">
         <v>7.533</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B524" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="C524" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D524" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="E524" t="n">
+        <v>4.996</v>
+      </c>
+      <c r="F524" t="n">
+        <v>6.597</v>
+      </c>
+      <c r="G524" t="n">
+        <v>6.851</v>
+      </c>
+      <c r="H524" t="n">
+        <v>7.399</v>
+      </c>
+      <c r="I524" t="n">
+        <v>7.371</v>
+      </c>
+      <c r="J524" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="K524" t="n">
+        <v>7.448</v>
+      </c>
+      <c r="L524" t="n">
+        <v>7.597</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L524"/>
+  <dimension ref="A1:L525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20342,7 +20342,7 @@
         <v>44693</v>
       </c>
       <c r="B524" t="n">
-        <v>1.959</v>
+        <v>2.11</v>
       </c>
       <c r="C524" t="n">
         <v>2.19</v>
@@ -20373,6 +20373,44 @@
       </c>
       <c r="L524" t="n">
         <v>7.597</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B525" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C525" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D525" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="E525" t="n">
+        <v>4.958</v>
+      </c>
+      <c r="F525" t="n">
+        <v>6.573</v>
+      </c>
+      <c r="G525" t="n">
+        <v>6.828</v>
+      </c>
+      <c r="H525" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="I525" t="n">
+        <v>7.374</v>
+      </c>
+      <c r="J525" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="K525" t="n">
+        <v>7.541</v>
+      </c>
+      <c r="L525" t="n">
+        <v>7.613</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L525"/>
+  <dimension ref="A1:L526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20413,6 +20413,44 @@
         <v>7.613</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B526" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C526" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D526" t="n">
+        <v>4.526</v>
+      </c>
+      <c r="E526" t="n">
+        <v>4.801</v>
+      </c>
+      <c r="F526" t="n">
+        <v>6.688</v>
+      </c>
+      <c r="G526" t="n">
+        <v>6.898</v>
+      </c>
+      <c r="H526" t="n">
+        <v>7.489</v>
+      </c>
+      <c r="I526" t="n">
+        <v>7.628</v>
+      </c>
+      <c r="J526" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K526" t="n">
+        <v>7.439</v>
+      </c>
+      <c r="L526" t="n">
+        <v>7.613</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L526"/>
+  <dimension ref="A1:L527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20427,28 +20427,66 @@
         <v>4.526</v>
       </c>
       <c r="E526" t="n">
-        <v>4.801</v>
+        <v>4.911</v>
       </c>
       <c r="F526" t="n">
-        <v>6.688</v>
+        <v>6.64</v>
       </c>
       <c r="G526" t="n">
-        <v>6.898</v>
+        <v>6.824</v>
       </c>
       <c r="H526" t="n">
-        <v>7.489</v>
+        <v>7.391</v>
       </c>
       <c r="I526" t="n">
-        <v>7.628</v>
+        <v>7.533</v>
       </c>
       <c r="J526" t="n">
-        <v>7.634</v>
+        <v>7.526</v>
       </c>
       <c r="K526" t="n">
         <v>7.439</v>
       </c>
       <c r="L526" t="n">
         <v>7.613</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B527" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="C527" t="n">
+        <v>2.111</v>
+      </c>
+      <c r="D527" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E527" t="n">
+        <v>4.735</v>
+      </c>
+      <c r="F527" t="n">
+        <v>6.615</v>
+      </c>
+      <c r="G527" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="H527" t="n">
+        <v>7.448</v>
+      </c>
+      <c r="I527" t="n">
+        <v>7.639</v>
+      </c>
+      <c r="J527" t="n">
+        <v>7.596</v>
+      </c>
+      <c r="K527" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="L527" t="n">
+        <v>7.929</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20462,31 +20462,31 @@
         <v>2.111</v>
       </c>
       <c r="D527" t="n">
-        <v>2.33</v>
+        <v>4.518</v>
       </c>
       <c r="E527" t="n">
-        <v>4.735</v>
+        <v>4.806</v>
       </c>
       <c r="F527" t="n">
-        <v>6.615</v>
+        <v>6.578</v>
       </c>
       <c r="G527" t="n">
-        <v>6.854</v>
+        <v>6.779</v>
       </c>
       <c r="H527" t="n">
-        <v>7.448</v>
+        <v>7.34</v>
       </c>
       <c r="I527" t="n">
-        <v>7.639</v>
+        <v>7.532</v>
       </c>
       <c r="J527" t="n">
-        <v>7.596</v>
+        <v>7.48</v>
       </c>
       <c r="K527" t="n">
         <v>7.515</v>
       </c>
       <c r="L527" t="n">
-        <v>7.929</v>
+        <v>7.814</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20456,10 +20456,10 @@
         <v>44699</v>
       </c>
       <c r="B527" t="n">
-        <v>2.064</v>
+        <v>2.227</v>
       </c>
       <c r="C527" t="n">
-        <v>2.111</v>
+        <v>2.19</v>
       </c>
       <c r="D527" t="n">
         <v>4.518</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L527"/>
+  <dimension ref="A1:L531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20489,6 +20489,158 @@
         <v>7.814</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B528" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C528" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D528" t="n">
+        <v>5.247</v>
+      </c>
+      <c r="E528" t="n">
+        <v>4.567</v>
+      </c>
+      <c r="F528" t="n">
+        <v>6.458</v>
+      </c>
+      <c r="G528" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="H528" t="n">
+        <v>7.336</v>
+      </c>
+      <c r="I528" t="n">
+        <v>7.521</v>
+      </c>
+      <c r="J528" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="K528" t="n">
+        <v>7.595</v>
+      </c>
+      <c r="L528" t="n">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B529" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C529" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D529" t="n">
+        <v>5.247</v>
+      </c>
+      <c r="E529" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F529" t="n">
+        <v>6.348</v>
+      </c>
+      <c r="G529" t="n">
+        <v>6.605</v>
+      </c>
+      <c r="H529" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="I529" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="J529" t="n">
+        <v>7.453</v>
+      </c>
+      <c r="K529" t="n">
+        <v>7.567</v>
+      </c>
+      <c r="L529" t="n">
+        <v>7.781</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B530" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C530" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D530" t="n">
+        <v>4.776</v>
+      </c>
+      <c r="E530" t="n">
+        <v>3.924</v>
+      </c>
+      <c r="F530" t="n">
+        <v>6.149</v>
+      </c>
+      <c r="G530" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="H530" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I530" t="n">
+        <v>7.429</v>
+      </c>
+      <c r="J530" t="n">
+        <v>7.403</v>
+      </c>
+      <c r="K530" t="n">
+        <v>7.567</v>
+      </c>
+      <c r="L530" t="n">
+        <v>7.778</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B531" t="n">
+        <v>1.198</v>
+      </c>
+      <c r="C531" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D531" t="n">
+        <v>4.767</v>
+      </c>
+      <c r="E531" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="F531" t="n">
+        <v>6.074</v>
+      </c>
+      <c r="G531" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="H531" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="I531" t="n">
+        <v>7.484</v>
+      </c>
+      <c r="J531" t="n">
+        <v>7.452</v>
+      </c>
+      <c r="K531" t="n">
+        <v>7.673</v>
+      </c>
+      <c r="L531" t="n">
+        <v>7.889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L531"/>
+  <dimension ref="A1:L532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20608,7 +20608,7 @@
         <v>44705</v>
       </c>
       <c r="B531" t="n">
-        <v>1.198</v>
+        <v>1.784</v>
       </c>
       <c r="C531" t="n">
         <v>2.51</v>
@@ -20617,28 +20617,66 @@
         <v>4.767</v>
       </c>
       <c r="E531" t="n">
-        <v>3.841</v>
+        <v>3.91</v>
       </c>
       <c r="F531" t="n">
-        <v>6.074</v>
+        <v>6.061</v>
       </c>
       <c r="G531" t="n">
-        <v>6.331</v>
+        <v>6.27</v>
       </c>
       <c r="H531" t="n">
-        <v>7.317</v>
+        <v>7.222</v>
       </c>
       <c r="I531" t="n">
-        <v>7.484</v>
+        <v>7.383</v>
       </c>
       <c r="J531" t="n">
-        <v>7.452</v>
+        <v>7.353</v>
       </c>
       <c r="K531" t="n">
-        <v>7.673</v>
+        <v>7.568</v>
       </c>
       <c r="L531" t="n">
-        <v>7.889</v>
+        <v>7.771</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1.828</v>
+      </c>
+      <c r="C532" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D532" t="n">
+        <v>4.762</v>
+      </c>
+      <c r="E532" t="n">
+        <v>4.058</v>
+      </c>
+      <c r="F532" t="n">
+        <v>6.112</v>
+      </c>
+      <c r="G532" t="n">
+        <v>6.286</v>
+      </c>
+      <c r="H532" t="n">
+        <v>7.203</v>
+      </c>
+      <c r="I532" t="n">
+        <v>7.409</v>
+      </c>
+      <c r="J532" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="K532" t="n">
+        <v>7.559</v>
+      </c>
+      <c r="L532" t="n">
+        <v>7.714</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -20646,37 +20646,37 @@
         <v>44706</v>
       </c>
       <c r="B532" t="n">
-        <v>1.828</v>
+        <v>1.167</v>
       </c>
       <c r="C532" t="n">
-        <v>2.51</v>
+        <v>2.493</v>
       </c>
       <c r="D532" t="n">
-        <v>4.762</v>
+        <v>4.46</v>
       </c>
       <c r="E532" t="n">
-        <v>4.058</v>
+        <v>3.961</v>
       </c>
       <c r="F532" t="n">
-        <v>6.112</v>
+        <v>6.109</v>
       </c>
       <c r="G532" t="n">
-        <v>6.286</v>
+        <v>6.347</v>
       </c>
       <c r="H532" t="n">
-        <v>7.203</v>
+        <v>7.3</v>
       </c>
       <c r="I532" t="n">
-        <v>7.409</v>
+        <v>7.511</v>
       </c>
       <c r="J532" t="n">
-        <v>7.344</v>
+        <v>7.448</v>
       </c>
       <c r="K532" t="n">
-        <v>7.559</v>
+        <v>7.662</v>
       </c>
       <c r="L532" t="n">
-        <v>7.714</v>
+        <v>7.814</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L532"/>
+  <dimension ref="A1:L533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20646,37 +20646,75 @@
         <v>44706</v>
       </c>
       <c r="B532" t="n">
-        <v>1.167</v>
+        <v>1.828</v>
       </c>
       <c r="C532" t="n">
-        <v>2.493</v>
+        <v>2.51</v>
       </c>
       <c r="D532" t="n">
-        <v>4.46</v>
+        <v>4.762</v>
       </c>
       <c r="E532" t="n">
-        <v>3.961</v>
+        <v>4.058</v>
       </c>
       <c r="F532" t="n">
-        <v>6.109</v>
+        <v>6.112</v>
       </c>
       <c r="G532" t="n">
-        <v>6.347</v>
+        <v>6.286</v>
       </c>
       <c r="H532" t="n">
-        <v>7.3</v>
+        <v>7.203</v>
       </c>
       <c r="I532" t="n">
-        <v>7.511</v>
+        <v>7.409</v>
       </c>
       <c r="J532" t="n">
-        <v>7.448</v>
+        <v>7.344</v>
       </c>
       <c r="K532" t="n">
-        <v>7.662</v>
+        <v>7.559</v>
       </c>
       <c r="L532" t="n">
-        <v>7.814</v>
+        <v>7.714</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C533" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D533" t="n">
+        <v>4.713</v>
+      </c>
+      <c r="E533" t="n">
+        <v>4.067</v>
+      </c>
+      <c r="F533" t="n">
+        <v>5.899</v>
+      </c>
+      <c r="G533" t="n">
+        <v>6.228</v>
+      </c>
+      <c r="H533" t="n">
+        <v>7.141</v>
+      </c>
+      <c r="I533" t="n">
+        <v>7.373</v>
+      </c>
+      <c r="J533" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="K533" t="n">
+        <v>7.562</v>
+      </c>
+      <c r="L533" t="n">
+        <v>7.712</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L533"/>
+  <dimension ref="A1:L534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20717,6 +20717,44 @@
         <v>7.712</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B534" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="C534" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="D534" t="n">
+        <v>4.293</v>
+      </c>
+      <c r="E534" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="F534" t="n">
+        <v>5.767</v>
+      </c>
+      <c r="G534" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="H534" t="n">
+        <v>7.163</v>
+      </c>
+      <c r="I534" t="n">
+        <v>7.455</v>
+      </c>
+      <c r="J534" t="n">
+        <v>7.456</v>
+      </c>
+      <c r="K534" t="n">
+        <v>7.661</v>
+      </c>
+      <c r="L534" t="n">
+        <v>7.721</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L534"/>
+  <dimension ref="A1:L535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20755,6 +20755,44 @@
         <v>7.721</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C535" t="n">
+        <v>2.494</v>
+      </c>
+      <c r="D535" t="n">
+        <v>4.234</v>
+      </c>
+      <c r="E535" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="F535" t="n">
+        <v>5.721</v>
+      </c>
+      <c r="G535" t="n">
+        <v>6.212</v>
+      </c>
+      <c r="H535" t="n">
+        <v>7.145</v>
+      </c>
+      <c r="I535" t="n">
+        <v>7.449</v>
+      </c>
+      <c r="J535" t="n">
+        <v>7.449</v>
+      </c>
+      <c r="K535" t="n">
+        <v>7.662</v>
+      </c>
+      <c r="L535" t="n">
+        <v>7.677</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L535"/>
+  <dimension ref="A1:L536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20722,37 +20722,37 @@
         <v>44711</v>
       </c>
       <c r="B534" t="n">
-        <v>1.044</v>
+        <v>1.671</v>
       </c>
       <c r="C534" t="n">
-        <v>2.501</v>
+        <v>2.51</v>
       </c>
       <c r="D534" t="n">
-        <v>4.293</v>
+        <v>4.596</v>
       </c>
       <c r="E534" t="n">
-        <v>3.878</v>
+        <v>3.957</v>
       </c>
       <c r="F534" t="n">
         <v>5.767</v>
       </c>
       <c r="G534" t="n">
-        <v>6.256</v>
+        <v>6.215</v>
       </c>
       <c r="H534" t="n">
-        <v>7.163</v>
+        <v>7.065</v>
       </c>
       <c r="I534" t="n">
-        <v>7.455</v>
+        <v>7.352</v>
       </c>
       <c r="J534" t="n">
-        <v>7.456</v>
+        <v>7.345</v>
       </c>
       <c r="K534" t="n">
-        <v>7.661</v>
+        <v>7.559</v>
       </c>
       <c r="L534" t="n">
-        <v>7.721</v>
+        <v>7.602</v>
       </c>
     </row>
     <row r="535">
@@ -20760,37 +20760,75 @@
         <v>44712</v>
       </c>
       <c r="B535" t="n">
-        <v>0.998</v>
+        <v>1.613</v>
       </c>
       <c r="C535" t="n">
-        <v>2.494</v>
+        <v>2.51</v>
       </c>
       <c r="D535" t="n">
-        <v>4.234</v>
+        <v>4.529</v>
       </c>
       <c r="E535" t="n">
-        <v>3.897</v>
+        <v>3.989</v>
       </c>
       <c r="F535" t="n">
-        <v>5.721</v>
+        <v>5.709</v>
       </c>
       <c r="G535" t="n">
-        <v>6.212</v>
+        <v>6.161</v>
       </c>
       <c r="H535" t="n">
-        <v>7.145</v>
+        <v>7.047</v>
       </c>
       <c r="I535" t="n">
-        <v>7.449</v>
+        <v>7.342</v>
       </c>
       <c r="J535" t="n">
-        <v>7.449</v>
+        <v>7.338</v>
       </c>
       <c r="K535" t="n">
-        <v>7.662</v>
+        <v>7.552</v>
       </c>
       <c r="L535" t="n">
-        <v>7.677</v>
+        <v>7.561</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B536" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C536" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D536" t="n">
+        <v>4.592</v>
+      </c>
+      <c r="E536" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F536" t="n">
+        <v>5.711</v>
+      </c>
+      <c r="G536" t="n">
+        <v>6.138</v>
+      </c>
+      <c r="H536" t="n">
+        <v>7.046</v>
+      </c>
+      <c r="I536" t="n">
+        <v>7.345</v>
+      </c>
+      <c r="J536" t="n">
+        <v>7.346</v>
+      </c>
+      <c r="K536" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="L536" t="n">
+        <v>7.548</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L536"/>
+  <dimension ref="A1:L537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20831,6 +20831,44 @@
         <v>7.548</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B537" t="n">
+        <v>1.584</v>
+      </c>
+      <c r="C537" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D537" t="n">
+        <v>4.469</v>
+      </c>
+      <c r="E537" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="F537" t="n">
+        <v>5.547</v>
+      </c>
+      <c r="G537" t="n">
+        <v>6.067</v>
+      </c>
+      <c r="H537" t="n">
+        <v>6.996</v>
+      </c>
+      <c r="I537" t="n">
+        <v>7.345</v>
+      </c>
+      <c r="J537" t="n">
+        <v>7.342</v>
+      </c>
+      <c r="K537" t="n">
+        <v>7.561</v>
+      </c>
+      <c r="L537" t="n">
+        <v>7.522</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L537"/>
+  <dimension ref="A1:L538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20869,6 +20869,44 @@
         <v>7.522</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B538" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="C538" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D538" t="n">
+        <v>4.417</v>
+      </c>
+      <c r="E538" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="F538" t="n">
+        <v>5.523</v>
+      </c>
+      <c r="G538" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="H538" t="n">
+        <v>6.966</v>
+      </c>
+      <c r="I538" t="n">
+        <v>7.258</v>
+      </c>
+      <c r="J538" t="n">
+        <v>7.291</v>
+      </c>
+      <c r="K538" t="n">
+        <v>7.548</v>
+      </c>
+      <c r="L538" t="n">
+        <v>7.419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L538"/>
+  <dimension ref="A1:L539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20907,6 +20907,44 @@
         <v>7.419</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B539" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C539" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D539" t="n">
+        <v>3.905</v>
+      </c>
+      <c r="E539" t="n">
+        <v>3.803</v>
+      </c>
+      <c r="F539" t="n">
+        <v>5.501</v>
+      </c>
+      <c r="G539" t="n">
+        <v>6.128</v>
+      </c>
+      <c r="H539" t="n">
+        <v>7.112</v>
+      </c>
+      <c r="I539" t="n">
+        <v>7.345</v>
+      </c>
+      <c r="J539" t="n">
+        <v>7.409</v>
+      </c>
+      <c r="K539" t="n">
+        <v>7.628</v>
+      </c>
+      <c r="L539" t="n">
+        <v>7.528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L539"/>
+  <dimension ref="A1:L541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20912,37 +20912,113 @@
         <v>44719</v>
       </c>
       <c r="B539" t="n">
-        <v>1.91</v>
+        <v>2.482</v>
       </c>
       <c r="C539" t="n">
         <v>2.51</v>
       </c>
       <c r="D539" t="n">
-        <v>3.905</v>
+        <v>3.928</v>
       </c>
       <c r="E539" t="n">
-        <v>3.803</v>
+        <v>3.869</v>
       </c>
       <c r="F539" t="n">
-        <v>5.501</v>
+        <v>5.492</v>
       </c>
       <c r="G539" t="n">
-        <v>6.128</v>
+        <v>6.081</v>
       </c>
       <c r="H539" t="n">
-        <v>7.112</v>
+        <v>7.026</v>
       </c>
       <c r="I539" t="n">
-        <v>7.345</v>
+        <v>7.252</v>
       </c>
       <c r="J539" t="n">
-        <v>7.409</v>
+        <v>7.303</v>
       </c>
       <c r="K539" t="n">
-        <v>7.628</v>
+        <v>7.52</v>
       </c>
       <c r="L539" t="n">
-        <v>7.528</v>
+        <v>7.418</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B540" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C540" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D540" t="n">
+        <v>3.819</v>
+      </c>
+      <c r="E540" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F540" t="n">
+        <v>5.552</v>
+      </c>
+      <c r="G540" t="n">
+        <v>6.142</v>
+      </c>
+      <c r="H540" t="n">
+        <v>7.109</v>
+      </c>
+      <c r="I540" t="n">
+        <v>7.286</v>
+      </c>
+      <c r="J540" t="n">
+        <v>7.324</v>
+      </c>
+      <c r="K540" t="n">
+        <v>7.521</v>
+      </c>
+      <c r="L540" t="n">
+        <v>7.413</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C541" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D541" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="E541" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="F541" t="n">
+        <v>5.654</v>
+      </c>
+      <c r="G541" t="n">
+        <v>6.267</v>
+      </c>
+      <c r="H541" t="n">
+        <v>7.281</v>
+      </c>
+      <c r="I541" t="n">
+        <v>7.405</v>
+      </c>
+      <c r="J541" t="n">
+        <v>7.459</v>
+      </c>
+      <c r="K541" t="n">
+        <v>7.627</v>
+      </c>
+      <c r="L541" t="n">
+        <v>7.535</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L541"/>
+  <dimension ref="A1:L542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20988,37 +20988,75 @@
         <v>44721</v>
       </c>
       <c r="B541" t="n">
-        <v>1.914</v>
+        <v>2.59</v>
       </c>
       <c r="C541" t="n">
         <v>2.51</v>
       </c>
       <c r="D541" t="n">
-        <v>3.748</v>
+        <v>3.764</v>
       </c>
       <c r="E541" t="n">
-        <v>3.866</v>
+        <v>3.949</v>
       </c>
       <c r="F541" t="n">
-        <v>5.654</v>
+        <v>5.663</v>
       </c>
       <c r="G541" t="n">
-        <v>6.267</v>
+        <v>6.213</v>
       </c>
       <c r="H541" t="n">
-        <v>7.281</v>
+        <v>7.187</v>
       </c>
       <c r="I541" t="n">
-        <v>7.405</v>
+        <v>7.314</v>
       </c>
       <c r="J541" t="n">
-        <v>7.459</v>
+        <v>7.351</v>
       </c>
       <c r="K541" t="n">
-        <v>7.627</v>
+        <v>7.52</v>
       </c>
       <c r="L541" t="n">
-        <v>7.535</v>
+        <v>7.425</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B542" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="C542" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D542" t="n">
+        <v>3.729</v>
+      </c>
+      <c r="E542" t="n">
+        <v>3.978</v>
+      </c>
+      <c r="F542" t="n">
+        <v>5.674</v>
+      </c>
+      <c r="G542" t="n">
+        <v>6.288</v>
+      </c>
+      <c r="H542" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I542" t="n">
+        <v>7.339</v>
+      </c>
+      <c r="J542" t="n">
+        <v>7.347</v>
+      </c>
+      <c r="K542" t="n">
+        <v>7.538</v>
+      </c>
+      <c r="L542" t="n">
+        <v>7.446</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -21032,7 +21032,7 @@
         <v>2.51</v>
       </c>
       <c r="D542" t="n">
-        <v>3.729</v>
+        <v>3.745</v>
       </c>
       <c r="E542" t="n">
         <v>3.978</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L542"/>
+  <dimension ref="A1:L543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21059,6 +21059,44 @@
         <v>7.446</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B543" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C543" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D543" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E543" t="n">
+        <v>3.993</v>
+      </c>
+      <c r="F543" t="n">
+        <v>5.666</v>
+      </c>
+      <c r="G543" t="n">
+        <v>6.441</v>
+      </c>
+      <c r="H543" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="I543" t="n">
+        <v>7.365</v>
+      </c>
+      <c r="J543" t="n">
+        <v>7.374</v>
+      </c>
+      <c r="K543" t="n">
+        <v>7.538</v>
+      </c>
+      <c r="L543" t="n">
+        <v>7.458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L543"/>
+  <dimension ref="A1:L544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21070,7 +21070,7 @@
         <v>2.51</v>
       </c>
       <c r="D543" t="n">
-        <v>3.71</v>
+        <v>3.726</v>
       </c>
       <c r="E543" t="n">
         <v>3.993</v>
@@ -21095,6 +21095,44 @@
       </c>
       <c r="L543" t="n">
         <v>7.458</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B544" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C544" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D544" t="n">
+        <v>3.804</v>
+      </c>
+      <c r="E544" t="n">
+        <v>4.213</v>
+      </c>
+      <c r="F544" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="G544" t="n">
+        <v>6.695</v>
+      </c>
+      <c r="H544" t="n">
+        <v>7.413</v>
+      </c>
+      <c r="I544" t="n">
+        <v>7.403</v>
+      </c>
+      <c r="J544" t="n">
+        <v>7.442</v>
+      </c>
+      <c r="K544" t="n">
+        <v>7.538</v>
+      </c>
+      <c r="L544" t="n">
+        <v>7.562</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L544"/>
+  <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21108,7 +21108,7 @@
         <v>2.51</v>
       </c>
       <c r="D544" t="n">
-        <v>3.804</v>
+        <v>3.819</v>
       </c>
       <c r="E544" t="n">
         <v>4.213</v>
@@ -21133,6 +21133,120 @@
       </c>
       <c r="L544" t="n">
         <v>7.562</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B545" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C545" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D545" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="E545" t="n">
+        <v>4.241</v>
+      </c>
+      <c r="F545" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="G545" t="n">
+        <v>6.668</v>
+      </c>
+      <c r="H545" t="n">
+        <v>7.435</v>
+      </c>
+      <c r="I545" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="J545" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="K545" t="n">
+        <v>7.564</v>
+      </c>
+      <c r="L545" t="n">
+        <v>7.488</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B546" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C546" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D546" t="n">
+        <v>3.838</v>
+      </c>
+      <c r="E546" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F546" t="n">
+        <v>5.987</v>
+      </c>
+      <c r="G546" t="n">
+        <v>6.589</v>
+      </c>
+      <c r="H546" t="n">
+        <v>7.411</v>
+      </c>
+      <c r="I546" t="n">
+        <v>7.561</v>
+      </c>
+      <c r="J546" t="n">
+        <v>7.411</v>
+      </c>
+      <c r="K546" t="n">
+        <v>7.598</v>
+      </c>
+      <c r="L546" t="n">
+        <v>7.488</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B547" t="n">
+        <v>2.395</v>
+      </c>
+      <c r="C547" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="D547" t="n">
+        <v>3.784</v>
+      </c>
+      <c r="E547" t="n">
+        <v>4.562</v>
+      </c>
+      <c r="F547" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="G547" t="n">
+        <v>6.616</v>
+      </c>
+      <c r="H547" t="n">
+        <v>7.466</v>
+      </c>
+      <c r="I547" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="J547" t="n">
+        <v>7.396</v>
+      </c>
+      <c r="K547" t="n">
+        <v>7.582</v>
+      </c>
+      <c r="L547" t="n">
+        <v>7.569</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -21222,7 +21222,7 @@
         <v>2.76</v>
       </c>
       <c r="D547" t="n">
-        <v>3.784</v>
+        <v>3.801</v>
       </c>
       <c r="E547" t="n">
         <v>4.562</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L547"/>
+  <dimension ref="A1:L548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21249,6 +21249,44 @@
         <v>7.569</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B548" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C548" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D548" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="E548" t="n">
+        <v>4.361</v>
+      </c>
+      <c r="F548" t="n">
+        <v>5.923</v>
+      </c>
+      <c r="G548" t="n">
+        <v>6.692</v>
+      </c>
+      <c r="H548" t="n">
+        <v>7.609</v>
+      </c>
+      <c r="I548" t="n">
+        <v>7.609</v>
+      </c>
+      <c r="J548" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="K548" t="n">
+        <v>7.662</v>
+      </c>
+      <c r="L548" t="n">
+        <v>7.582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L548"/>
+  <dimension ref="A1:L549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21260,31 +21260,69 @@
         <v>2.54</v>
       </c>
       <c r="D548" t="n">
-        <v>3.824</v>
+        <v>3.897</v>
       </c>
       <c r="E548" t="n">
-        <v>4.361</v>
+        <v>4.409</v>
       </c>
       <c r="F548" t="n">
-        <v>5.923</v>
+        <v>5.901</v>
       </c>
       <c r="G548" t="n">
-        <v>6.692</v>
+        <v>6.639</v>
       </c>
       <c r="H548" t="n">
-        <v>7.609</v>
+        <v>7.499</v>
       </c>
       <c r="I548" t="n">
-        <v>7.609</v>
+        <v>7.498</v>
       </c>
       <c r="J548" t="n">
-        <v>7.51</v>
+        <v>7.4</v>
       </c>
       <c r="K548" t="n">
-        <v>7.662</v>
+        <v>7.56</v>
       </c>
       <c r="L548" t="n">
-        <v>7.582</v>
+        <v>7.486</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B549" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C549" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D549" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="E549" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F549" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="G549" t="n">
+        <v>6.841</v>
+      </c>
+      <c r="H549" t="n">
+        <v>7.627</v>
+      </c>
+      <c r="I549" t="n">
+        <v>7.652</v>
+      </c>
+      <c r="J549" t="n">
+        <v>7.568</v>
+      </c>
+      <c r="K549" t="n">
+        <v>7.695</v>
+      </c>
+      <c r="L549" t="n">
+        <v>7.603</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L549"/>
+  <dimension ref="A1:L550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21298,31 +21298,69 @@
         <v>2.54</v>
       </c>
       <c r="D549" t="n">
-        <v>3.864</v>
+        <v>3.878</v>
       </c>
       <c r="E549" t="n">
-        <v>4.37</v>
+        <v>4.502</v>
       </c>
       <c r="F549" t="n">
-        <v>5.978</v>
+        <v>5.955</v>
       </c>
       <c r="G549" t="n">
-        <v>6.841</v>
+        <v>6.782</v>
       </c>
       <c r="H549" t="n">
-        <v>7.627</v>
+        <v>7.514</v>
       </c>
       <c r="I549" t="n">
-        <v>7.652</v>
+        <v>7.545</v>
       </c>
       <c r="J549" t="n">
-        <v>7.568</v>
+        <v>7.456</v>
       </c>
       <c r="K549" t="n">
-        <v>7.695</v>
+        <v>7.594</v>
       </c>
       <c r="L549" t="n">
-        <v>7.603</v>
+        <v>7.501</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B550" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C550" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D550" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="E550" t="n">
+        <v>4.405</v>
+      </c>
+      <c r="F550" t="n">
+        <v>5.976</v>
+      </c>
+      <c r="G550" t="n">
+        <v>6.825</v>
+      </c>
+      <c r="H550" t="n">
+        <v>7.607</v>
+      </c>
+      <c r="I550" t="n">
+        <v>7.641</v>
+      </c>
+      <c r="J550" t="n">
+        <v>7.502</v>
+      </c>
+      <c r="K550" t="n">
+        <v>7.594</v>
+      </c>
+      <c r="L550" t="n">
+        <v>7.618</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L550"/>
+  <dimension ref="A1:L551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21339,28 +21339,66 @@
         <v>3.859</v>
       </c>
       <c r="E550" t="n">
-        <v>4.405</v>
+        <v>4.502</v>
       </c>
       <c r="F550" t="n">
-        <v>5.976</v>
+        <v>5.946</v>
       </c>
       <c r="G550" t="n">
-        <v>6.825</v>
+        <v>6.754</v>
       </c>
       <c r="H550" t="n">
-        <v>7.607</v>
+        <v>7.494</v>
       </c>
       <c r="I550" t="n">
-        <v>7.641</v>
+        <v>7.539</v>
       </c>
       <c r="J550" t="n">
-        <v>7.502</v>
+        <v>7.393</v>
       </c>
       <c r="K550" t="n">
         <v>7.594</v>
       </c>
       <c r="L550" t="n">
-        <v>7.618</v>
+        <v>7.521</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B551" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C551" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D551" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E551" t="n">
+        <v>4.377</v>
+      </c>
+      <c r="F551" t="n">
+        <v>5.914</v>
+      </c>
+      <c r="G551" t="n">
+        <v>6.675</v>
+      </c>
+      <c r="H551" t="n">
+        <v>7.543</v>
+      </c>
+      <c r="I551" t="n">
+        <v>7.467</v>
+      </c>
+      <c r="J551" t="n">
+        <v>7.405</v>
+      </c>
+      <c r="K551" t="n">
+        <v>7.594</v>
+      </c>
+      <c r="L551" t="n">
+        <v>7.621</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L551"/>
+  <dimension ref="A1:L552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21377,28 +21377,66 @@
         <v>3.82</v>
       </c>
       <c r="E551" t="n">
-        <v>4.377</v>
+        <v>4.485</v>
       </c>
       <c r="F551" t="n">
-        <v>5.914</v>
+        <v>5.886</v>
       </c>
       <c r="G551" t="n">
-        <v>6.675</v>
+        <v>6.605</v>
       </c>
       <c r="H551" t="n">
-        <v>7.543</v>
+        <v>7.431</v>
       </c>
       <c r="I551" t="n">
-        <v>7.467</v>
+        <v>7.351</v>
       </c>
       <c r="J551" t="n">
-        <v>7.405</v>
+        <v>7.293</v>
       </c>
       <c r="K551" t="n">
         <v>7.594</v>
       </c>
       <c r="L551" t="n">
-        <v>7.621</v>
+        <v>7.523</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B552" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C552" t="n">
+        <v>2.695</v>
+      </c>
+      <c r="D552" t="n">
+        <v>3.764</v>
+      </c>
+      <c r="E552" t="n">
+        <v>4.453</v>
+      </c>
+      <c r="F552" t="n">
+        <v>5.828</v>
+      </c>
+      <c r="G552" t="n">
+        <v>6.594</v>
+      </c>
+      <c r="H552" t="n">
+        <v>7.379</v>
+      </c>
+      <c r="I552" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="J552" t="n">
+        <v>7.298</v>
+      </c>
+      <c r="K552" t="n">
+        <v>7.569</v>
+      </c>
+      <c r="L552" t="n">
+        <v>7.548</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -21412,7 +21412,7 @@
         <v>2.695</v>
       </c>
       <c r="D552" t="n">
-        <v>3.764</v>
+        <v>3.781</v>
       </c>
       <c r="E552" t="n">
         <v>4.453</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L552"/>
+  <dimension ref="A1:L553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21439,6 +21439,44 @@
         <v>7.548</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B553" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C553" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="D553" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="E553" t="n">
+        <v>4.365</v>
+      </c>
+      <c r="F553" t="n">
+        <v>5.697</v>
+      </c>
+      <c r="G553" t="n">
+        <v>6.587</v>
+      </c>
+      <c r="H553" t="n">
+        <v>7.418</v>
+      </c>
+      <c r="I553" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="J553" t="n">
+        <v>7.393</v>
+      </c>
+      <c r="K553" t="n">
+        <v>7.667</v>
+      </c>
+      <c r="L553" t="n">
+        <v>7.654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L553"/>
+  <dimension ref="A1:L554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21447,34 +21447,72 @@
         <v>2.51</v>
       </c>
       <c r="C553" t="n">
-        <v>2.321</v>
+        <v>2.825</v>
       </c>
       <c r="D553" t="n">
-        <v>3.724</v>
+        <v>3.741</v>
       </c>
       <c r="E553" t="n">
-        <v>4.365</v>
+        <v>4.465</v>
       </c>
       <c r="F553" t="n">
-        <v>5.697</v>
+        <v>5.709</v>
       </c>
       <c r="G553" t="n">
-        <v>6.587</v>
+        <v>6.538</v>
       </c>
       <c r="H553" t="n">
-        <v>7.418</v>
+        <v>7.316</v>
       </c>
       <c r="I553" t="n">
-        <v>7.42</v>
+        <v>7.322</v>
       </c>
       <c r="J553" t="n">
-        <v>7.393</v>
+        <v>7.289</v>
       </c>
       <c r="K553" t="n">
-        <v>7.667</v>
+        <v>7.572</v>
       </c>
       <c r="L553" t="n">
-        <v>7.654</v>
+        <v>7.547</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B554" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C554" t="n">
+        <v>2.813</v>
+      </c>
+      <c r="D554" t="n">
+        <v>3.743</v>
+      </c>
+      <c r="E554" t="n">
+        <v>4.516</v>
+      </c>
+      <c r="F554" t="n">
+        <v>5.607</v>
+      </c>
+      <c r="G554" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="H554" t="n">
+        <v>7.292</v>
+      </c>
+      <c r="I554" t="n">
+        <v>7.325</v>
+      </c>
+      <c r="J554" t="n">
+        <v>7.274</v>
+      </c>
+      <c r="K554" t="n">
+        <v>7.578</v>
+      </c>
+      <c r="L554" t="n">
+        <v>7.547</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L554"/>
+  <dimension ref="A1:L555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21488,7 +21488,7 @@
         <v>2.813</v>
       </c>
       <c r="D554" t="n">
-        <v>3.743</v>
+        <v>3.761</v>
       </c>
       <c r="E554" t="n">
         <v>4.516</v>
@@ -21513,6 +21513,44 @@
       </c>
       <c r="L554" t="n">
         <v>7.547</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B555" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C555" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D555" t="n">
+        <v>3.784</v>
+      </c>
+      <c r="E555" t="n">
+        <v>4.416</v>
+      </c>
+      <c r="F555" t="n">
+        <v>5.607</v>
+      </c>
+      <c r="G555" t="n">
+        <v>6.278</v>
+      </c>
+      <c r="H555" t="n">
+        <v>7.393</v>
+      </c>
+      <c r="I555" t="n">
+        <v>7.442</v>
+      </c>
+      <c r="J555" t="n">
+        <v>7.374</v>
+      </c>
+      <c r="K555" t="n">
+        <v>7.655</v>
+      </c>
+      <c r="L555" t="n">
+        <v>7.612</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L555"/>
+  <dimension ref="A1:L556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21523,34 +21523,72 @@
         <v>2.51</v>
       </c>
       <c r="C555" t="n">
-        <v>2.48</v>
+        <v>2.948</v>
       </c>
       <c r="D555" t="n">
-        <v>3.784</v>
+        <v>3.801</v>
       </c>
       <c r="E555" t="n">
-        <v>4.416</v>
+        <v>4.477</v>
       </c>
       <c r="F555" t="n">
-        <v>5.607</v>
+        <v>5.63</v>
       </c>
       <c r="G555" t="n">
-        <v>6.278</v>
+        <v>6.232</v>
       </c>
       <c r="H555" t="n">
-        <v>7.393</v>
+        <v>7.288</v>
       </c>
       <c r="I555" t="n">
-        <v>7.442</v>
+        <v>7.338</v>
       </c>
       <c r="J555" t="n">
-        <v>7.374</v>
+        <v>7.274</v>
       </c>
       <c r="K555" t="n">
-        <v>7.655</v>
+        <v>7.556</v>
       </c>
       <c r="L555" t="n">
-        <v>7.612</v>
+        <v>7.524</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B556" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C556" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D556" t="n">
+        <v>3.826</v>
+      </c>
+      <c r="E556" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="F556" t="n">
+        <v>5.596</v>
+      </c>
+      <c r="G556" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="H556" t="n">
+        <v>7.356</v>
+      </c>
+      <c r="I556" t="n">
+        <v>7.455</v>
+      </c>
+      <c r="J556" t="n">
+        <v>7.367</v>
+      </c>
+      <c r="K556" t="n">
+        <v>7.664</v>
+      </c>
+      <c r="L556" t="n">
+        <v>7.636</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L556"/>
+  <dimension ref="A1:L557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21564,31 +21564,69 @@
         <v>2.54</v>
       </c>
       <c r="D556" t="n">
-        <v>3.826</v>
+        <v>3.781</v>
       </c>
       <c r="E556" t="n">
-        <v>4.404</v>
+        <v>4.472</v>
       </c>
       <c r="F556" t="n">
-        <v>5.596</v>
+        <v>5.57</v>
       </c>
       <c r="G556" t="n">
-        <v>6.26</v>
+        <v>6.206</v>
       </c>
       <c r="H556" t="n">
-        <v>7.356</v>
+        <v>7.249</v>
       </c>
       <c r="I556" t="n">
-        <v>7.455</v>
+        <v>7.346</v>
       </c>
       <c r="J556" t="n">
-        <v>7.367</v>
+        <v>7.255</v>
       </c>
       <c r="K556" t="n">
-        <v>7.664</v>
+        <v>7.575</v>
       </c>
       <c r="L556" t="n">
-        <v>7.636</v>
+        <v>7.523</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B557" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C557" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D557" t="n">
+        <v>3.888</v>
+      </c>
+      <c r="E557" t="n">
+        <v>4.481</v>
+      </c>
+      <c r="F557" t="n">
+        <v>5.617</v>
+      </c>
+      <c r="G557" t="n">
+        <v>6.143</v>
+      </c>
+      <c r="H557" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="I557" t="n">
+        <v>7.354</v>
+      </c>
+      <c r="J557" t="n">
+        <v>7.248</v>
+      </c>
+      <c r="K557" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="L557" t="n">
+        <v>7.515</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -21602,7 +21602,7 @@
         <v>2.54</v>
       </c>
       <c r="D557" t="n">
-        <v>3.888</v>
+        <v>3.903</v>
       </c>
       <c r="E557" t="n">
         <v>4.481</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L557"/>
+  <dimension ref="A1:L558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21629,6 +21629,44 @@
         <v>7.515</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B558" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C558" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="D558" t="n">
+        <v>3.826</v>
+      </c>
+      <c r="E558" t="n">
+        <v>4.387</v>
+      </c>
+      <c r="F558" t="n">
+        <v>5.655</v>
+      </c>
+      <c r="G558" t="n">
+        <v>6.255</v>
+      </c>
+      <c r="H558" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="I558" t="n">
+        <v>7.456</v>
+      </c>
+      <c r="J558" t="n">
+        <v>7.372</v>
+      </c>
+      <c r="K558" t="n">
+        <v>7.661</v>
+      </c>
+      <c r="L558" t="n">
+        <v>7.623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L558"/>
+  <dimension ref="A1:L559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21637,34 +21637,72 @@
         <v>2.51</v>
       </c>
       <c r="C558" t="n">
-        <v>2.105</v>
+        <v>2.168</v>
       </c>
       <c r="D558" t="n">
-        <v>3.826</v>
+        <v>3.842</v>
       </c>
       <c r="E558" t="n">
-        <v>4.387</v>
+        <v>4.442</v>
       </c>
       <c r="F558" t="n">
-        <v>5.655</v>
+        <v>5.671</v>
       </c>
       <c r="G558" t="n">
-        <v>6.255</v>
+        <v>6.197</v>
       </c>
       <c r="H558" t="n">
-        <v>7.378</v>
+        <v>7.272</v>
       </c>
       <c r="I558" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J558" t="n">
+        <v>7.263</v>
+      </c>
+      <c r="K558" t="n">
+        <v>7.572</v>
+      </c>
+      <c r="L558" t="n">
+        <v>7.514</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B559" t="n">
+        <v>2.503</v>
+      </c>
+      <c r="C559" t="n">
+        <v>2.514</v>
+      </c>
+      <c r="D559" t="n">
+        <v>3.805</v>
+      </c>
+      <c r="E559" t="n">
+        <v>4.358</v>
+      </c>
+      <c r="F559" t="n">
+        <v>5.688</v>
+      </c>
+      <c r="G559" t="n">
+        <v>6.267</v>
+      </c>
+      <c r="H559" t="n">
+        <v>7.415</v>
+      </c>
+      <c r="I559" t="n">
         <v>7.456</v>
       </c>
-      <c r="J558" t="n">
-        <v>7.372</v>
-      </c>
-      <c r="K558" t="n">
-        <v>7.661</v>
-      </c>
-      <c r="L558" t="n">
-        <v>7.623</v>
+      <c r="J559" t="n">
+        <v>7.394</v>
+      </c>
+      <c r="K559" t="n">
+        <v>7.554</v>
+      </c>
+      <c r="L559" t="n">
+        <v>7.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -21678,25 +21678,25 @@
         <v>2.514</v>
       </c>
       <c r="D559" t="n">
-        <v>3.805</v>
+        <v>3.822</v>
       </c>
       <c r="E559" t="n">
-        <v>4.358</v>
+        <v>4.472</v>
       </c>
       <c r="F559" t="n">
-        <v>5.688</v>
+        <v>5.695</v>
       </c>
       <c r="G559" t="n">
-        <v>6.267</v>
+        <v>6.201</v>
       </c>
       <c r="H559" t="n">
-        <v>7.415</v>
+        <v>7.298</v>
       </c>
       <c r="I559" t="n">
-        <v>7.456</v>
+        <v>7.353</v>
       </c>
       <c r="J559" t="n">
-        <v>7.394</v>
+        <v>7.284</v>
       </c>
       <c r="K559" t="n">
         <v>7.554</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L559"/>
+  <dimension ref="A1:L560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21672,10 +21672,10 @@
         <v>44747</v>
       </c>
       <c r="B559" t="n">
-        <v>2.503</v>
+        <v>2.51</v>
       </c>
       <c r="C559" t="n">
-        <v>2.514</v>
+        <v>2.54</v>
       </c>
       <c r="D559" t="n">
         <v>3.822</v>
@@ -21703,6 +21703,44 @@
       </c>
       <c r="L559" t="n">
         <v>7.51</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B560" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C560" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="D560" t="n">
+        <v>3.822</v>
+      </c>
+      <c r="E560" t="n">
+        <v>4.378</v>
+      </c>
+      <c r="F560" t="n">
+        <v>5.755</v>
+      </c>
+      <c r="G560" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="H560" t="n">
+        <v>7.277</v>
+      </c>
+      <c r="I560" t="n">
+        <v>7.365</v>
+      </c>
+      <c r="J560" t="n">
+        <v>7.323</v>
+      </c>
+      <c r="K560" t="n">
+        <v>7.575</v>
+      </c>
+      <c r="L560" t="n">
+        <v>7.512</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L560"/>
+  <dimension ref="A1:L561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21743,6 +21743,44 @@
         <v>7.512</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B561" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C561" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D561" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="E561" t="n">
+        <v>4.365</v>
+      </c>
+      <c r="F561" t="n">
+        <v>5.708</v>
+      </c>
+      <c r="G561" t="n">
+        <v>6.234</v>
+      </c>
+      <c r="H561" t="n">
+        <v>7.257</v>
+      </c>
+      <c r="I561" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="J561" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="K561" t="n">
+        <v>7.609</v>
+      </c>
+      <c r="L561" t="n">
+        <v>7.506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -21748,37 +21748,37 @@
         <v>44750</v>
       </c>
       <c r="B561" t="n">
-        <v>2.51</v>
+        <v>2.529</v>
       </c>
       <c r="C561" t="n">
-        <v>2.54</v>
+        <v>2.526</v>
       </c>
       <c r="D561" t="n">
-        <v>3.823</v>
+        <v>3.784</v>
       </c>
       <c r="E561" t="n">
-        <v>4.365</v>
+        <v>4.354</v>
       </c>
       <c r="F561" t="n">
-        <v>5.708</v>
+        <v>5.711</v>
       </c>
       <c r="G561" t="n">
-        <v>6.234</v>
+        <v>6.293</v>
       </c>
       <c r="H561" t="n">
-        <v>7.257</v>
+        <v>7.369</v>
       </c>
       <c r="I561" t="n">
-        <v>7.34</v>
+        <v>7.453</v>
       </c>
       <c r="J561" t="n">
-        <v>7.328</v>
+        <v>7.443</v>
       </c>
       <c r="K561" t="n">
-        <v>7.609</v>
+        <v>7.709</v>
       </c>
       <c r="L561" t="n">
-        <v>7.506</v>
+        <v>7.617</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -21748,34 +21748,34 @@
         <v>44750</v>
       </c>
       <c r="B561" t="n">
-        <v>2.529</v>
+        <v>2.51</v>
       </c>
       <c r="C561" t="n">
-        <v>2.526</v>
+        <v>2.54</v>
       </c>
       <c r="D561" t="n">
-        <v>3.784</v>
+        <v>3.823</v>
       </c>
       <c r="E561" t="n">
-        <v>4.354</v>
+        <v>4.365</v>
       </c>
       <c r="F561" t="n">
-        <v>5.711</v>
+        <v>5.708</v>
       </c>
       <c r="G561" t="n">
-        <v>6.293</v>
+        <v>6.234</v>
       </c>
       <c r="H561" t="n">
-        <v>7.369</v>
+        <v>7.257</v>
       </c>
       <c r="I561" t="n">
-        <v>7.453</v>
+        <v>7.34</v>
       </c>
       <c r="J561" t="n">
-        <v>7.443</v>
+        <v>7.328</v>
       </c>
       <c r="K561" t="n">
-        <v>7.709</v>
+        <v>7.609</v>
       </c>
       <c r="L561" t="n">
         <v>7.617</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L561"/>
+  <dimension ref="A1:L562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21778,7 +21778,45 @@
         <v>7.609</v>
       </c>
       <c r="L561" t="n">
-        <v>7.617</v>
+        <v>7.506</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B562" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C562" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D562" t="n">
+        <v>3.828</v>
+      </c>
+      <c r="E562" t="n">
+        <v>4.345</v>
+      </c>
+      <c r="F562" t="n">
+        <v>5.765</v>
+      </c>
+      <c r="G562" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="H562" t="n">
+        <v>7.405</v>
+      </c>
+      <c r="I562" t="n">
+        <v>7.456</v>
+      </c>
+      <c r="J562" t="n">
+        <v>7.463</v>
+      </c>
+      <c r="K562" t="n">
+        <v>7.672</v>
+      </c>
+      <c r="L562" t="n">
+        <v>7.622</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L562"/>
+  <dimension ref="A1:L563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21792,31 +21792,69 @@
         <v>2.54</v>
       </c>
       <c r="D562" t="n">
-        <v>3.828</v>
+        <v>3.844</v>
       </c>
       <c r="E562" t="n">
-        <v>4.345</v>
+        <v>4.354</v>
       </c>
       <c r="F562" t="n">
-        <v>5.765</v>
+        <v>5.804</v>
       </c>
       <c r="G562" t="n">
-        <v>6.301</v>
+        <v>6.238</v>
       </c>
       <c r="H562" t="n">
-        <v>7.405</v>
+        <v>7.293</v>
       </c>
       <c r="I562" t="n">
-        <v>7.456</v>
+        <v>7.352</v>
       </c>
       <c r="J562" t="n">
-        <v>7.463</v>
+        <v>7.353</v>
       </c>
       <c r="K562" t="n">
-        <v>7.672</v>
+        <v>7.571</v>
       </c>
       <c r="L562" t="n">
-        <v>7.622</v>
+        <v>7.519</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B563" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C563" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D563" t="n">
+        <v>3.784</v>
+      </c>
+      <c r="E563" t="n">
+        <v>4.324</v>
+      </c>
+      <c r="F563" t="n">
+        <v>5.778</v>
+      </c>
+      <c r="G563" t="n">
+        <v>6.306</v>
+      </c>
+      <c r="H563" t="n">
+        <v>7.394</v>
+      </c>
+      <c r="I563" t="n">
+        <v>7.442</v>
+      </c>
+      <c r="J563" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="K563" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="L563" t="n">
+        <v>7.616</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L563"/>
+  <dimension ref="A1:L564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21830,31 +21830,69 @@
         <v>2.54</v>
       </c>
       <c r="D563" t="n">
+        <v>3.801</v>
+      </c>
+      <c r="E563" t="n">
+        <v>4.368</v>
+      </c>
+      <c r="F563" t="n">
+        <v>5.803</v>
+      </c>
+      <c r="G563" t="n">
+        <v>6.239</v>
+      </c>
+      <c r="H563" t="n">
+        <v>7.277</v>
+      </c>
+      <c r="I563" t="n">
+        <v>7.332</v>
+      </c>
+      <c r="J563" t="n">
+        <v>7.369</v>
+      </c>
+      <c r="K563" t="n">
+        <v>7.589</v>
+      </c>
+      <c r="L563" t="n">
+        <v>7.514</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B564" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C564" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D564" t="n">
         <v>3.784</v>
       </c>
-      <c r="E563" t="n">
-        <v>4.324</v>
-      </c>
-      <c r="F563" t="n">
-        <v>5.778</v>
-      </c>
-      <c r="G563" t="n">
-        <v>6.306</v>
-      </c>
-      <c r="H563" t="n">
-        <v>7.394</v>
-      </c>
-      <c r="I563" t="n">
-        <v>7.442</v>
-      </c>
-      <c r="J563" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="K563" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L563" t="n">
-        <v>7.616</v>
+      <c r="E564" t="n">
+        <v>4.346</v>
+      </c>
+      <c r="F564" t="n">
+        <v>5.753</v>
+      </c>
+      <c r="G564" t="n">
+        <v>6.324</v>
+      </c>
+      <c r="H564" t="n">
+        <v>7.356</v>
+      </c>
+      <c r="I564" t="n">
+        <v>7.431</v>
+      </c>
+      <c r="J564" t="n">
+        <v>7.472</v>
+      </c>
+      <c r="K564" t="n">
+        <v>7.696</v>
+      </c>
+      <c r="L564" t="n">
+        <v>7.608</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L564"/>
+  <dimension ref="A1:L565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21868,30 +21868,68 @@
         <v>2.54</v>
       </c>
       <c r="D564" t="n">
-        <v>3.784</v>
+        <v>3.802</v>
       </c>
       <c r="E564" t="n">
-        <v>4.346</v>
+        <v>4.359</v>
       </c>
       <c r="F564" t="n">
-        <v>5.753</v>
+        <v>5.735</v>
       </c>
       <c r="G564" t="n">
-        <v>6.324</v>
+        <v>6.26</v>
       </c>
       <c r="H564" t="n">
-        <v>7.356</v>
+        <v>7.244</v>
       </c>
       <c r="I564" t="n">
-        <v>7.431</v>
+        <v>7.323</v>
       </c>
       <c r="J564" t="n">
-        <v>7.472</v>
+        <v>7.364</v>
       </c>
       <c r="K564" t="n">
-        <v>7.696</v>
+        <v>7.595</v>
       </c>
       <c r="L564" t="n">
+        <v>7.499</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B565" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C565" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D565" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="E565" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="F565" t="n">
+        <v>5.821</v>
+      </c>
+      <c r="G565" t="n">
+        <v>6.373</v>
+      </c>
+      <c r="H565" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="I565" t="n">
+        <v>7.432</v>
+      </c>
+      <c r="J565" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="K565" t="n">
+        <v>7.706</v>
+      </c>
+      <c r="L565" t="n">
         <v>7.608</v>
       </c>
     </row>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L565"/>
+  <dimension ref="A1:L566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21906,31 +21906,69 @@
         <v>2.54</v>
       </c>
       <c r="D565" t="n">
-        <v>3.852</v>
+        <v>3.867</v>
       </c>
       <c r="E565" t="n">
-        <v>4.278</v>
+        <v>4.351</v>
       </c>
       <c r="F565" t="n">
-        <v>5.821</v>
+        <v>5.803</v>
       </c>
       <c r="G565" t="n">
-        <v>6.373</v>
+        <v>6.319</v>
       </c>
       <c r="H565" t="n">
-        <v>7.39</v>
+        <v>7.281</v>
       </c>
       <c r="I565" t="n">
-        <v>7.432</v>
+        <v>7.324</v>
       </c>
       <c r="J565" t="n">
-        <v>7.48</v>
+        <v>7.37</v>
       </c>
       <c r="K565" t="n">
-        <v>7.706</v>
+        <v>7.607</v>
       </c>
       <c r="L565" t="n">
-        <v>7.608</v>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B566" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C566" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D566" t="n">
+        <v>3.908</v>
+      </c>
+      <c r="E566" t="n">
+        <v>4.439</v>
+      </c>
+      <c r="F566" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="G566" t="n">
+        <v>6.428</v>
+      </c>
+      <c r="H566" t="n">
+        <v>7.365</v>
+      </c>
+      <c r="I566" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="J566" t="n">
+        <v>7.414</v>
+      </c>
+      <c r="K566" t="n">
+        <v>7.602</v>
+      </c>
+      <c r="L566" t="n">
+        <v>7.521</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -21938,37 +21938,37 @@
         <v>44757</v>
       </c>
       <c r="B566" t="n">
-        <v>2.51</v>
+        <v>2.493</v>
       </c>
       <c r="C566" t="n">
-        <v>2.75</v>
+        <v>2.352</v>
       </c>
       <c r="D566" t="n">
         <v>3.908</v>
       </c>
       <c r="E566" t="n">
-        <v>4.439</v>
+        <v>4.348</v>
       </c>
       <c r="F566" t="n">
-        <v>5.887</v>
+        <v>5.892</v>
       </c>
       <c r="G566" t="n">
-        <v>6.428</v>
+        <v>6.473</v>
       </c>
       <c r="H566" t="n">
-        <v>7.365</v>
+        <v>7.479</v>
       </c>
       <c r="I566" t="n">
-        <v>7.337</v>
+        <v>7.448</v>
       </c>
       <c r="J566" t="n">
-        <v>7.414</v>
+        <v>7.526</v>
       </c>
       <c r="K566" t="n">
-        <v>7.602</v>
+        <v>7.706</v>
       </c>
       <c r="L566" t="n">
-        <v>7.521</v>
+        <v>7.635</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -21938,37 +21938,37 @@
         <v>44757</v>
       </c>
       <c r="B566" t="n">
-        <v>2.493</v>
+        <v>2.51</v>
       </c>
       <c r="C566" t="n">
-        <v>2.352</v>
+        <v>2.75</v>
       </c>
       <c r="D566" t="n">
-        <v>3.908</v>
+        <v>3.913</v>
       </c>
       <c r="E566" t="n">
-        <v>4.348</v>
+        <v>4.439</v>
       </c>
       <c r="F566" t="n">
-        <v>5.892</v>
+        <v>5.887</v>
       </c>
       <c r="G566" t="n">
-        <v>6.473</v>
+        <v>6.428</v>
       </c>
       <c r="H566" t="n">
-        <v>7.479</v>
+        <v>7.365</v>
       </c>
       <c r="I566" t="n">
-        <v>7.448</v>
+        <v>7.337</v>
       </c>
       <c r="J566" t="n">
-        <v>7.526</v>
+        <v>7.414</v>
       </c>
       <c r="K566" t="n">
-        <v>7.706</v>
+        <v>7.602</v>
       </c>
       <c r="L566" t="n">
-        <v>7.635</v>
+        <v>7.521</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L566"/>
+  <dimension ref="A1:L569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21971,6 +21971,120 @@
         <v>7.521</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B567" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="C567" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D567" t="n">
+        <v>3.891</v>
+      </c>
+      <c r="E567" t="n">
+        <v>4.503</v>
+      </c>
+      <c r="F567" t="n">
+        <v>6.036</v>
+      </c>
+      <c r="G567" t="n">
+        <v>6.483</v>
+      </c>
+      <c r="H567" t="n">
+        <v>7.382</v>
+      </c>
+      <c r="I567" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J567" t="n">
+        <v>7.468</v>
+      </c>
+      <c r="K567" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L567" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B568" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C568" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D568" t="n">
+        <v>3.932</v>
+      </c>
+      <c r="E568" t="n">
+        <v>4.599</v>
+      </c>
+      <c r="F568" t="n">
+        <v>6.189</v>
+      </c>
+      <c r="G568" t="n">
+        <v>6.568</v>
+      </c>
+      <c r="H568" t="n">
+        <v>7.416</v>
+      </c>
+      <c r="I568" t="n">
+        <v>7.353</v>
+      </c>
+      <c r="J568" t="n">
+        <v>7.528</v>
+      </c>
+      <c r="K568" t="n">
+        <v>7.604</v>
+      </c>
+      <c r="L568" t="n">
+        <v>7.555</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B569" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C569" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D569" t="n">
+        <v>3.932</v>
+      </c>
+      <c r="E569" t="n">
+        <v>4.477</v>
+      </c>
+      <c r="F569" t="n">
+        <v>6.351</v>
+      </c>
+      <c r="G569" t="n">
+        <v>6.787</v>
+      </c>
+      <c r="H569" t="n">
+        <v>7.591</v>
+      </c>
+      <c r="I569" t="n">
+        <v>7.479</v>
+      </c>
+      <c r="J569" t="n">
+        <v>7.712</v>
+      </c>
+      <c r="K569" t="n">
+        <v>7.697</v>
+      </c>
+      <c r="L569" t="n">
+        <v>7.685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L569"/>
+  <dimension ref="A1:L570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22020,7 +22020,7 @@
         <v>2.54</v>
       </c>
       <c r="D568" t="n">
-        <v>3.932</v>
+        <v>3.936</v>
       </c>
       <c r="E568" t="n">
         <v>4.599</v>
@@ -22058,31 +22058,69 @@
         <v>2.54</v>
       </c>
       <c r="D569" t="n">
-        <v>3.932</v>
+        <v>3.936</v>
       </c>
       <c r="E569" t="n">
-        <v>4.477</v>
+        <v>4.619</v>
       </c>
       <c r="F569" t="n">
-        <v>6.351</v>
+        <v>6.267</v>
       </c>
       <c r="G569" t="n">
-        <v>6.787</v>
+        <v>6.72</v>
       </c>
       <c r="H569" t="n">
-        <v>7.591</v>
+        <v>7.465</v>
       </c>
       <c r="I569" t="n">
-        <v>7.479</v>
+        <v>7.369</v>
       </c>
       <c r="J569" t="n">
-        <v>7.712</v>
+        <v>7.595</v>
       </c>
       <c r="K569" t="n">
-        <v>7.697</v>
+        <v>7.584</v>
       </c>
       <c r="L569" t="n">
-        <v>7.685</v>
+        <v>7.582</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B570" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C570" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D570" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E570" t="n">
+        <v>4.672</v>
+      </c>
+      <c r="F570" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="G570" t="n">
+        <v>6.774</v>
+      </c>
+      <c r="H570" t="n">
+        <v>7.484</v>
+      </c>
+      <c r="I570" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J570" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="K570" t="n">
+        <v>7.606</v>
+      </c>
+      <c r="L570" t="n">
+        <v>7.571</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L570"/>
+  <dimension ref="A1:L571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22123,6 +22123,44 @@
         <v>7.571</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B571" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C571" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D571" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E571" t="n">
+        <v>4.684</v>
+      </c>
+      <c r="F571" t="n">
+        <v>6.425</v>
+      </c>
+      <c r="G571" t="n">
+        <v>6.829</v>
+      </c>
+      <c r="H571" t="n">
+        <v>7.491</v>
+      </c>
+      <c r="I571" t="n">
+        <v>7.356</v>
+      </c>
+      <c r="J571" t="n">
+        <v>7.612</v>
+      </c>
+      <c r="K571" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="L571" t="n">
+        <v>7.553</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L571"/>
+  <dimension ref="A1:L572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22161,6 +22161,44 @@
         <v>7.553</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B572" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C572" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D572" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E572" t="n">
+        <v>4.532</v>
+      </c>
+      <c r="F572" t="n">
+        <v>6.488</v>
+      </c>
+      <c r="G572" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="H572" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="I572" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="J572" t="n">
+        <v>7.728</v>
+      </c>
+      <c r="K572" t="n">
+        <v>7.751</v>
+      </c>
+      <c r="L572" t="n">
+        <v>7.663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L572"/>
+  <dimension ref="A1:L573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22175,28 +22175,66 @@
         <v>3.35</v>
       </c>
       <c r="E572" t="n">
-        <v>4.532</v>
+        <v>4.695</v>
       </c>
       <c r="F572" t="n">
-        <v>6.488</v>
+        <v>6.429</v>
       </c>
       <c r="G572" t="n">
-        <v>6.88</v>
+        <v>6.801</v>
       </c>
       <c r="H572" t="n">
-        <v>7.56</v>
+        <v>7.442</v>
       </c>
       <c r="I572" t="n">
-        <v>7.425</v>
+        <v>7.315</v>
       </c>
       <c r="J572" t="n">
-        <v>7.728</v>
+        <v>7.605</v>
       </c>
       <c r="K572" t="n">
+        <v>7.651</v>
+      </c>
+      <c r="L572" t="n">
+        <v>7.548</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B573" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="C573" t="n">
+        <v>2.977</v>
+      </c>
+      <c r="D573" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E573" t="n">
+        <v>4.492</v>
+      </c>
+      <c r="F573" t="n">
+        <v>6.466</v>
+      </c>
+      <c r="G573" t="n">
+        <v>6.855</v>
+      </c>
+      <c r="H573" t="n">
+        <v>7.522</v>
+      </c>
+      <c r="I573" t="n">
+        <v>7.387</v>
+      </c>
+      <c r="J573" t="n">
+        <v>7.681</v>
+      </c>
+      <c r="K573" t="n">
         <v>7.751</v>
       </c>
-      <c r="L572" t="n">
-        <v>7.663</v>
+      <c r="L573" t="n">
+        <v>7.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L573"/>
+  <dimension ref="A1:L574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22204,37 +22204,75 @@
         <v>44768</v>
       </c>
       <c r="B573" t="n">
-        <v>2.941</v>
+        <v>3.06</v>
       </c>
       <c r="C573" t="n">
-        <v>2.977</v>
+        <v>3.13</v>
       </c>
       <c r="D573" t="n">
         <v>3.35</v>
       </c>
       <c r="E573" t="n">
-        <v>4.492</v>
+        <v>4.682</v>
       </c>
       <c r="F573" t="n">
-        <v>6.466</v>
+        <v>6.419</v>
       </c>
       <c r="G573" t="n">
-        <v>6.855</v>
+        <v>6.775</v>
       </c>
       <c r="H573" t="n">
-        <v>7.522</v>
+        <v>7.415</v>
       </c>
       <c r="I573" t="n">
-        <v>7.387</v>
+        <v>7.287</v>
       </c>
       <c r="J573" t="n">
-        <v>7.681</v>
+        <v>7.569</v>
       </c>
       <c r="K573" t="n">
+        <v>7.654</v>
+      </c>
+      <c r="L573" t="n">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B574" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C574" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="D574" t="n">
+        <v>4.059</v>
+      </c>
+      <c r="E574" t="n">
+        <v>4.514</v>
+      </c>
+      <c r="F574" t="n">
+        <v>6.446</v>
+      </c>
+      <c r="G574" t="n">
+        <v>6.839</v>
+      </c>
+      <c r="H574" t="n">
+        <v>7.523</v>
+      </c>
+      <c r="I574" t="n">
+        <v>7.366</v>
+      </c>
+      <c r="J574" t="n">
+        <v>7.641</v>
+      </c>
+      <c r="K574" t="n">
         <v>7.751</v>
       </c>
-      <c r="L573" t="n">
-        <v>7.66</v>
+      <c r="L574" t="n">
+        <v>7.656</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L574"/>
+  <dimension ref="A1:L575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22245,34 +22245,72 @@
         <v>3.06</v>
       </c>
       <c r="C574" t="n">
-        <v>2.82</v>
+        <v>3.065</v>
       </c>
       <c r="D574" t="n">
         <v>4.059</v>
       </c>
       <c r="E574" t="n">
-        <v>4.514</v>
+        <v>4.668</v>
       </c>
       <c r="F574" t="n">
-        <v>6.446</v>
+        <v>6.394</v>
       </c>
       <c r="G574" t="n">
-        <v>6.839</v>
+        <v>6.762</v>
       </c>
       <c r="H574" t="n">
-        <v>7.523</v>
+        <v>7.414</v>
       </c>
       <c r="I574" t="n">
-        <v>7.366</v>
+        <v>7.265</v>
       </c>
       <c r="J574" t="n">
-        <v>7.641</v>
+        <v>7.528</v>
       </c>
       <c r="K574" t="n">
-        <v>7.751</v>
+        <v>7.654</v>
       </c>
       <c r="L574" t="n">
-        <v>7.656</v>
+        <v>7.546</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B575" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C575" t="n">
+        <v>3</v>
+      </c>
+      <c r="D575" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E575" t="n">
+        <v>4.542</v>
+      </c>
+      <c r="F575" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="G575" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="H575" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="I575" t="n">
+        <v>7.107</v>
+      </c>
+      <c r="J575" t="n">
+        <v>7.397</v>
+      </c>
+      <c r="K575" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="L575" t="n">
+        <v>7.514</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L575"/>
+  <dimension ref="A1:L576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22313,6 +22313,44 @@
         <v>7.514</v>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B576" t="n">
+        <v>2.935</v>
+      </c>
+      <c r="C576" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="D576" t="n">
+        <v>3.339</v>
+      </c>
+      <c r="E576" t="n">
+        <v>4.369</v>
+      </c>
+      <c r="F576" t="n">
+        <v>6.194</v>
+      </c>
+      <c r="G576" t="n">
+        <v>6.667</v>
+      </c>
+      <c r="H576" t="n">
+        <v>7.298</v>
+      </c>
+      <c r="I576" t="n">
+        <v>7.113</v>
+      </c>
+      <c r="J576" t="n">
+        <v>7.319</v>
+      </c>
+      <c r="K576" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="L576" t="n">
+        <v>7.598</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -22318,37 +22318,37 @@
         <v>44771</v>
       </c>
       <c r="B576" t="n">
-        <v>2.935</v>
+        <v>3.06</v>
       </c>
       <c r="C576" t="n">
-        <v>2.615</v>
+        <v>2.85</v>
       </c>
       <c r="D576" t="n">
-        <v>3.339</v>
+        <v>3.425</v>
       </c>
       <c r="E576" t="n">
-        <v>4.369</v>
+        <v>4.57</v>
       </c>
       <c r="F576" t="n">
-        <v>6.194</v>
+        <v>6.17</v>
       </c>
       <c r="G576" t="n">
-        <v>6.667</v>
+        <v>6.625</v>
       </c>
       <c r="H576" t="n">
-        <v>7.298</v>
+        <v>7.197</v>
       </c>
       <c r="I576" t="n">
-        <v>7.113</v>
+        <v>7.024</v>
       </c>
       <c r="J576" t="n">
-        <v>7.319</v>
+        <v>7.215</v>
       </c>
       <c r="K576" t="n">
-        <v>7.74</v>
+        <v>7.64</v>
       </c>
       <c r="L576" t="n">
-        <v>7.598</v>
+        <v>7.501</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L576"/>
+  <dimension ref="A1:L577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22351,6 +22351,44 @@
         <v>7.501</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B577" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C577" t="n">
+        <v>2.601</v>
+      </c>
+      <c r="D577" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E577" t="n">
+        <v>4.315</v>
+      </c>
+      <c r="F577" t="n">
+        <v>6.142</v>
+      </c>
+      <c r="G577" t="n">
+        <v>6.492</v>
+      </c>
+      <c r="H577" t="n">
+        <v>7.223</v>
+      </c>
+      <c r="I577" t="n">
+        <v>6.926</v>
+      </c>
+      <c r="J577" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K577" t="n">
+        <v>7.709</v>
+      </c>
+      <c r="L577" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -22356,7 +22356,7 @@
         <v>44774</v>
       </c>
       <c r="B577" t="n">
-        <v>3.06</v>
+        <v>2.901</v>
       </c>
       <c r="C577" t="n">
         <v>2.601</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -22356,37 +22356,37 @@
         <v>44774</v>
       </c>
       <c r="B577" t="n">
-        <v>2.901</v>
+        <v>3.06</v>
       </c>
       <c r="C577" t="n">
-        <v>2.601</v>
+        <v>2.85</v>
       </c>
       <c r="D577" t="n">
         <v>3.27</v>
       </c>
       <c r="E577" t="n">
-        <v>4.315</v>
+        <v>4.518</v>
       </c>
       <c r="F577" t="n">
-        <v>6.142</v>
+        <v>6.123</v>
       </c>
       <c r="G577" t="n">
-        <v>6.492</v>
+        <v>6.441</v>
       </c>
       <c r="H577" t="n">
-        <v>7.223</v>
+        <v>7.126</v>
       </c>
       <c r="I577" t="n">
-        <v>6.926</v>
+        <v>6.856</v>
       </c>
       <c r="J577" t="n">
-        <v>7.3</v>
+        <v>7.199</v>
       </c>
       <c r="K577" t="n">
-        <v>7.709</v>
+        <v>7.604</v>
       </c>
       <c r="L577" t="n">
-        <v>7.59</v>
+        <v>7.486</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L577"/>
+  <dimension ref="A1:L578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22389,6 +22389,44 @@
         <v>7.486</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B578" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C578" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D578" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E578" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="F578" t="n">
+        <v>6.049</v>
+      </c>
+      <c r="G578" t="n">
+        <v>6.427</v>
+      </c>
+      <c r="H578" t="n">
+        <v>7.143</v>
+      </c>
+      <c r="I578" t="n">
+        <v>7.014</v>
+      </c>
+      <c r="J578" t="n">
+        <v>7.212</v>
+      </c>
+      <c r="K578" t="n">
+        <v>7.567</v>
+      </c>
+      <c r="L578" t="n">
+        <v>7.472</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L578"/>
+  <dimension ref="A1:L580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22427,6 +22427,82 @@
         <v>7.472</v>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B579" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C579" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D579" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E579" t="n">
+        <v>4.234</v>
+      </c>
+      <c r="F579" t="n">
+        <v>6.074</v>
+      </c>
+      <c r="G579" t="n">
+        <v>6.485</v>
+      </c>
+      <c r="H579" t="n">
+        <v>7.209</v>
+      </c>
+      <c r="I579" t="n">
+        <v>7.114</v>
+      </c>
+      <c r="J579" t="n">
+        <v>7.295</v>
+      </c>
+      <c r="K579" t="n">
+        <v>7.655</v>
+      </c>
+      <c r="L579" t="n">
+        <v>7.565</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B580" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="C580" t="n">
+        <v>2.166</v>
+      </c>
+      <c r="D580" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="E580" t="n">
+        <v>4.257</v>
+      </c>
+      <c r="F580" t="n">
+        <v>6.046</v>
+      </c>
+      <c r="G580" t="n">
+        <v>6.452</v>
+      </c>
+      <c r="H580" t="n">
+        <v>7.215</v>
+      </c>
+      <c r="I580" t="n">
+        <v>7.115</v>
+      </c>
+      <c r="J580" t="n">
+        <v>7.288</v>
+      </c>
+      <c r="K580" t="n">
+        <v>7.676</v>
+      </c>
+      <c r="L580" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L580"/>
+  <dimension ref="A1:L581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22441,28 +22441,28 @@
         <v>3.03</v>
       </c>
       <c r="E579" t="n">
-        <v>4.234</v>
+        <v>4.363</v>
       </c>
       <c r="F579" t="n">
-        <v>6.074</v>
+        <v>6.051</v>
       </c>
       <c r="G579" t="n">
-        <v>6.485</v>
+        <v>6.424</v>
       </c>
       <c r="H579" t="n">
-        <v>7.209</v>
+        <v>7.096</v>
       </c>
       <c r="I579" t="n">
-        <v>7.114</v>
+        <v>7.019</v>
       </c>
       <c r="J579" t="n">
-        <v>7.295</v>
+        <v>7.186</v>
       </c>
       <c r="K579" t="n">
-        <v>7.655</v>
+        <v>7.558</v>
       </c>
       <c r="L579" t="n">
-        <v>7.565</v>
+        <v>7.466</v>
       </c>
     </row>
     <row r="580">
@@ -22470,37 +22470,75 @@
         <v>44782</v>
       </c>
       <c r="B580" t="n">
-        <v>2.091</v>
+        <v>2.2</v>
       </c>
       <c r="C580" t="n">
-        <v>2.166</v>
+        <v>2.28</v>
       </c>
       <c r="D580" t="n">
-        <v>2.875</v>
+        <v>3.03</v>
       </c>
       <c r="E580" t="n">
-        <v>4.257</v>
+        <v>4.419</v>
       </c>
       <c r="F580" t="n">
-        <v>6.046</v>
+        <v>6.032</v>
       </c>
       <c r="G580" t="n">
-        <v>6.452</v>
+        <v>6.397</v>
       </c>
       <c r="H580" t="n">
-        <v>7.215</v>
+        <v>7.114</v>
       </c>
       <c r="I580" t="n">
-        <v>7.115</v>
+        <v>7.028</v>
       </c>
       <c r="J580" t="n">
-        <v>7.288</v>
+        <v>7.179</v>
       </c>
       <c r="K580" t="n">
-        <v>7.676</v>
+        <v>7.568</v>
       </c>
       <c r="L580" t="n">
-        <v>7.56</v>
+        <v>7.479</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B581" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C581" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D581" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E581" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="F581" t="n">
+        <v>6.025</v>
+      </c>
+      <c r="G581" t="n">
+        <v>6.353</v>
+      </c>
+      <c r="H581" t="n">
+        <v>7.101</v>
+      </c>
+      <c r="I581" t="n">
+        <v>7.065</v>
+      </c>
+      <c r="J581" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="K581" t="n">
+        <v>7.699</v>
+      </c>
+      <c r="L581" t="n">
+        <v>7.524</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L581"/>
+  <dimension ref="A1:L582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22517,28 +22517,66 @@
         <v>3.03</v>
       </c>
       <c r="E581" t="n">
-        <v>4.062</v>
+        <v>4.221</v>
       </c>
       <c r="F581" t="n">
-        <v>6.025</v>
+        <v>6.008</v>
       </c>
       <c r="G581" t="n">
-        <v>6.353</v>
+        <v>6.327</v>
       </c>
       <c r="H581" t="n">
-        <v>7.101</v>
+        <v>7.01</v>
       </c>
       <c r="I581" t="n">
-        <v>7.065</v>
+        <v>6.983</v>
       </c>
       <c r="J581" t="n">
-        <v>7.253</v>
+        <v>7.144</v>
       </c>
       <c r="K581" t="n">
-        <v>7.699</v>
+        <v>7.586</v>
       </c>
       <c r="L581" t="n">
-        <v>7.524</v>
+        <v>7.419</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B582" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C582" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D582" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E582" t="n">
+        <v>4.202</v>
+      </c>
+      <c r="F582" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="G582" t="n">
+        <v>6.289</v>
+      </c>
+      <c r="H582" t="n">
+        <v>6.971</v>
+      </c>
+      <c r="I582" t="n">
+        <v>6.953</v>
+      </c>
+      <c r="J582" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K582" t="n">
+        <v>7.551</v>
+      </c>
+      <c r="L582" t="n">
+        <v>7.389</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L582"/>
+  <dimension ref="A1:L583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22579,6 +22579,44 @@
         <v>7.389</v>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B583" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C583" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D583" t="n">
+        <v>3.218</v>
+      </c>
+      <c r="E583" t="n">
+        <v>4.022</v>
+      </c>
+      <c r="F583" t="n">
+        <v>6.077</v>
+      </c>
+      <c r="G583" t="n">
+        <v>6.389</v>
+      </c>
+      <c r="H583" t="n">
+        <v>7.143</v>
+      </c>
+      <c r="I583" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="J583" t="n">
+        <v>7.245</v>
+      </c>
+      <c r="K583" t="n">
+        <v>7.676</v>
+      </c>
+      <c r="L583" t="n">
+        <v>7.481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L583"/>
+  <dimension ref="A1:L584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22617,6 +22617,44 @@
         <v>7.481</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B584" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="C584" t="n">
+        <v>2.214</v>
+      </c>
+      <c r="D584" t="n">
+        <v>3.228</v>
+      </c>
+      <c r="E584" t="n">
+        <v>4.227</v>
+      </c>
+      <c r="F584" t="n">
+        <v>6.064</v>
+      </c>
+      <c r="G584" t="n">
+        <v>6.459</v>
+      </c>
+      <c r="H584" t="n">
+        <v>7.174</v>
+      </c>
+      <c r="I584" t="n">
+        <v>7.085</v>
+      </c>
+      <c r="J584" t="n">
+        <v>7.252</v>
+      </c>
+      <c r="K584" t="n">
+        <v>7.676</v>
+      </c>
+      <c r="L584" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -22590,31 +22590,31 @@
         <v>2.28</v>
       </c>
       <c r="D583" t="n">
-        <v>3.218</v>
+        <v>3.311</v>
       </c>
       <c r="E583" t="n">
-        <v>4.022</v>
+        <v>4.099</v>
       </c>
       <c r="F583" t="n">
-        <v>6.077</v>
+        <v>6.097</v>
       </c>
       <c r="G583" t="n">
-        <v>6.389</v>
+        <v>6.342</v>
       </c>
       <c r="H583" t="n">
-        <v>7.143</v>
+        <v>7.049</v>
       </c>
       <c r="I583" t="n">
-        <v>7.063</v>
+        <v>6.969</v>
       </c>
       <c r="J583" t="n">
-        <v>7.245</v>
+        <v>7.139</v>
       </c>
       <c r="K583" t="n">
-        <v>7.676</v>
+        <v>7.569</v>
       </c>
       <c r="L583" t="n">
-        <v>7.481</v>
+        <v>7.363</v>
       </c>
     </row>
     <row r="584">
@@ -22628,13 +22628,13 @@
         <v>2.214</v>
       </c>
       <c r="D584" t="n">
-        <v>3.228</v>
+        <v>3.318</v>
       </c>
       <c r="E584" t="n">
         <v>4.227</v>
       </c>
       <c r="F584" t="n">
-        <v>6.064</v>
+        <v>6.087</v>
       </c>
       <c r="G584" t="n">
         <v>6.459</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L584"/>
+  <dimension ref="A1:L585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22622,37 +22622,75 @@
         <v>44789</v>
       </c>
       <c r="B584" t="n">
-        <v>2.155</v>
+        <v>2.28</v>
       </c>
       <c r="C584" t="n">
-        <v>2.214</v>
+        <v>2.33</v>
       </c>
       <c r="D584" t="n">
         <v>3.318</v>
       </c>
       <c r="E584" t="n">
-        <v>4.227</v>
+        <v>4.281</v>
       </c>
       <c r="F584" t="n">
         <v>6.087</v>
       </c>
       <c r="G584" t="n">
-        <v>6.459</v>
+        <v>6.407</v>
       </c>
       <c r="H584" t="n">
-        <v>7.174</v>
+        <v>7.068</v>
       </c>
       <c r="I584" t="n">
-        <v>7.085</v>
+        <v>6.996</v>
       </c>
       <c r="J584" t="n">
-        <v>7.252</v>
+        <v>7.146</v>
       </c>
       <c r="K584" t="n">
-        <v>7.676</v>
+        <v>7.568</v>
       </c>
       <c r="L584" t="n">
-        <v>7.49</v>
+        <v>7.373</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B585" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C585" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="D585" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="E585" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="F585" t="n">
+        <v>6.023</v>
+      </c>
+      <c r="G585" t="n">
+        <v>6.443</v>
+      </c>
+      <c r="H585" t="n">
+        <v>7.146</v>
+      </c>
+      <c r="I585" t="n">
+        <v>7.119</v>
+      </c>
+      <c r="J585" t="n">
+        <v>7.231</v>
+      </c>
+      <c r="K585" t="n">
+        <v>7.696</v>
+      </c>
+      <c r="L585" t="n">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L585"/>
+  <dimension ref="A1:L586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22666,31 +22666,69 @@
         <v>2.33</v>
       </c>
       <c r="D585" t="n">
-        <v>3.227</v>
+        <v>3.315</v>
       </c>
       <c r="E585" t="n">
-        <v>4.307</v>
+        <v>4.377</v>
       </c>
       <c r="F585" t="n">
-        <v>6.023</v>
+        <v>6.052</v>
       </c>
       <c r="G585" t="n">
-        <v>6.443</v>
+        <v>6.394</v>
       </c>
       <c r="H585" t="n">
-        <v>7.146</v>
+        <v>7.047</v>
       </c>
       <c r="I585" t="n">
-        <v>7.119</v>
+        <v>7.031</v>
       </c>
       <c r="J585" t="n">
-        <v>7.231</v>
+        <v>7.132</v>
       </c>
       <c r="K585" t="n">
-        <v>7.696</v>
+        <v>7.587</v>
       </c>
       <c r="L585" t="n">
-        <v>7.5</v>
+        <v>7.389</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B586" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C586" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="D586" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E586" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="F586" t="n">
+        <v>6.053</v>
+      </c>
+      <c r="G586" t="n">
+        <v>6.415</v>
+      </c>
+      <c r="H586" t="n">
+        <v>7.094</v>
+      </c>
+      <c r="I586" t="n">
+        <v>7.061</v>
+      </c>
+      <c r="J586" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="K586" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="L586" t="n">
+        <v>7.373</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -22704,13 +22704,13 @@
         <v>2.33</v>
       </c>
       <c r="D586" t="n">
-        <v>3.138</v>
+        <v>3.276</v>
       </c>
       <c r="E586" t="n">
         <v>4.352</v>
       </c>
       <c r="F586" t="n">
-        <v>6.053</v>
+        <v>6.096</v>
       </c>
       <c r="G586" t="n">
         <v>6.415</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L586"/>
+  <dimension ref="A1:L587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22731,6 +22731,44 @@
         <v>7.373</v>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B587" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C587" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="D587" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="E587" t="n">
+        <v>4.413</v>
+      </c>
+      <c r="F587" t="n">
+        <v>6.047</v>
+      </c>
+      <c r="G587" t="n">
+        <v>6.453</v>
+      </c>
+      <c r="H587" t="n">
+        <v>7.155</v>
+      </c>
+      <c r="I587" t="n">
+        <v>7.075</v>
+      </c>
+      <c r="J587" t="n">
+        <v>7.146</v>
+      </c>
+      <c r="K587" t="n">
+        <v>7.523</v>
+      </c>
+      <c r="L587" t="n">
+        <v>7.371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L587"/>
+  <dimension ref="A1:L588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22742,13 +22742,13 @@
         <v>2.33</v>
       </c>
       <c r="D587" t="n">
-        <v>3.161</v>
+        <v>3.302</v>
       </c>
       <c r="E587" t="n">
         <v>4.413</v>
       </c>
       <c r="F587" t="n">
-        <v>6.047</v>
+        <v>6.085</v>
       </c>
       <c r="G587" t="n">
         <v>6.453</v>
@@ -22767,6 +22767,44 @@
       </c>
       <c r="L587" t="n">
         <v>7.371</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B588" t="n">
+        <v>2.071</v>
+      </c>
+      <c r="C588" t="n">
+        <v>2.306</v>
+      </c>
+      <c r="D588" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="E588" t="n">
+        <v>4.155</v>
+      </c>
+      <c r="F588" t="n">
+        <v>6.021</v>
+      </c>
+      <c r="G588" t="n">
+        <v>6.655</v>
+      </c>
+      <c r="H588" t="n">
+        <v>7.245</v>
+      </c>
+      <c r="I588" t="n">
+        <v>7.219</v>
+      </c>
+      <c r="J588" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="K588" t="n">
+        <v>7.648</v>
+      </c>
+      <c r="L588" t="n">
+        <v>7.509</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L588"/>
+  <dimension ref="A1:L589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22774,37 +22774,75 @@
         <v>44796</v>
       </c>
       <c r="B588" t="n">
-        <v>2.071</v>
+        <v>2.091</v>
       </c>
       <c r="C588" t="n">
-        <v>2.306</v>
+        <v>2.41</v>
       </c>
       <c r="D588" t="n">
-        <v>3.188</v>
+        <v>3.328</v>
       </c>
       <c r="E588" t="n">
-        <v>4.155</v>
+        <v>4.243</v>
       </c>
       <c r="F588" t="n">
-        <v>6.021</v>
+        <v>6</v>
       </c>
       <c r="G588" t="n">
-        <v>6.655</v>
+        <v>6.599</v>
       </c>
       <c r="H588" t="n">
-        <v>7.245</v>
+        <v>7.156</v>
       </c>
       <c r="I588" t="n">
-        <v>7.219</v>
+        <v>7.134</v>
       </c>
       <c r="J588" t="n">
-        <v>7.275</v>
+        <v>7.182</v>
       </c>
       <c r="K588" t="n">
-        <v>7.648</v>
+        <v>7.544</v>
       </c>
       <c r="L588" t="n">
-        <v>7.509</v>
+        <v>7.407</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B589" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="C589" t="n">
+        <v>2.313</v>
+      </c>
+      <c r="D589" t="n">
+        <v>3.245</v>
+      </c>
+      <c r="E589" t="n">
+        <v>4.344</v>
+      </c>
+      <c r="F589" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="G589" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="H589" t="n">
+        <v>7.066</v>
+      </c>
+      <c r="I589" t="n">
+        <v>7.133</v>
+      </c>
+      <c r="J589" t="n">
+        <v>7.153</v>
+      </c>
+      <c r="K589" t="n">
+        <v>7.558</v>
+      </c>
+      <c r="L589" t="n">
+        <v>7.376</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L589"/>
+  <dimension ref="A1:L590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22812,19 +22812,19 @@
         <v>44797</v>
       </c>
       <c r="B589" t="n">
-        <v>2.124</v>
+        <v>2.166</v>
       </c>
       <c r="C589" t="n">
-        <v>2.313</v>
+        <v>2.387</v>
       </c>
       <c r="D589" t="n">
-        <v>3.245</v>
+        <v>3.38</v>
       </c>
       <c r="E589" t="n">
         <v>4.344</v>
       </c>
       <c r="F589" t="n">
-        <v>5.982</v>
+        <v>5.964</v>
       </c>
       <c r="G589" t="n">
         <v>6.604</v>
@@ -22843,6 +22843,44 @@
       </c>
       <c r="L589" t="n">
         <v>7.376</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B590" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="C590" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="D590" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="E590" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="F590" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G590" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="H590" t="n">
+        <v>7.157</v>
+      </c>
+      <c r="I590" t="n">
+        <v>7.148</v>
+      </c>
+      <c r="J590" t="n">
+        <v>7.257</v>
+      </c>
+      <c r="K590" t="n">
+        <v>7.662</v>
+      </c>
+      <c r="L590" t="n">
+        <v>7.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L590"/>
+  <dimension ref="A1:L591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22850,37 +22850,75 @@
         <v>44798</v>
       </c>
       <c r="B590" t="n">
-        <v>2.095</v>
+        <v>2.192</v>
       </c>
       <c r="C590" t="n">
-        <v>2.362</v>
+        <v>2.432</v>
       </c>
       <c r="D590" t="n">
-        <v>3.463</v>
+        <v>3.55</v>
       </c>
       <c r="E590" t="n">
-        <v>4.278</v>
+        <v>4.385</v>
       </c>
       <c r="F590" t="n">
-        <v>6.08</v>
+        <v>6.068</v>
       </c>
       <c r="G590" t="n">
-        <v>6.684</v>
+        <v>6.613</v>
       </c>
       <c r="H590" t="n">
-        <v>7.157</v>
+        <v>7.061</v>
       </c>
       <c r="I590" t="n">
-        <v>7.148</v>
+        <v>7.055</v>
       </c>
       <c r="J590" t="n">
-        <v>7.257</v>
+        <v>7.147</v>
       </c>
       <c r="K590" t="n">
-        <v>7.662</v>
+        <v>7.557</v>
       </c>
       <c r="L590" t="n">
-        <v>7.47</v>
+        <v>7.358</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B591" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="C591" t="n">
+        <v>2.434</v>
+      </c>
+      <c r="D591" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="E591" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F591" t="n">
+        <v>6.056</v>
+      </c>
+      <c r="G591" t="n">
+        <v>6.641</v>
+      </c>
+      <c r="H591" t="n">
+        <v>7.073</v>
+      </c>
+      <c r="I591" t="n">
+        <v>7.065</v>
+      </c>
+      <c r="J591" t="n">
+        <v>7.147</v>
+      </c>
+      <c r="K591" t="n">
+        <v>7.552</v>
+      </c>
+      <c r="L591" t="n">
+        <v>7.347</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -22894,13 +22894,13 @@
         <v>2.434</v>
       </c>
       <c r="D591" t="n">
-        <v>3.484</v>
+        <v>3.571</v>
       </c>
       <c r="E591" t="n">
         <v>4.36</v>
       </c>
       <c r="F591" t="n">
-        <v>6.056</v>
+        <v>6.063</v>
       </c>
       <c r="G591" t="n">
         <v>6.641</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L591"/>
+  <dimension ref="A1:L592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22921,6 +22921,44 @@
         <v>7.347</v>
       </c>
     </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B592" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C592" t="n">
+        <v>2.379</v>
+      </c>
+      <c r="D592" t="n">
+        <v>3.911</v>
+      </c>
+      <c r="E592" t="n">
+        <v>4.513</v>
+      </c>
+      <c r="F592" t="n">
+        <v>6.128</v>
+      </c>
+      <c r="G592" t="n">
+        <v>6.756</v>
+      </c>
+      <c r="H592" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="I592" t="n">
+        <v>7.203</v>
+      </c>
+      <c r="J592" t="n">
+        <v>7.237</v>
+      </c>
+      <c r="K592" t="n">
+        <v>7.654</v>
+      </c>
+      <c r="L592" t="n">
+        <v>7.463</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L592"/>
+  <dimension ref="A1:L593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22926,37 +22926,75 @@
         <v>44802</v>
       </c>
       <c r="B592" t="n">
-        <v>2.11</v>
+        <v>2.207</v>
       </c>
       <c r="C592" t="n">
-        <v>2.379</v>
+        <v>2.425</v>
       </c>
       <c r="D592" t="n">
-        <v>3.911</v>
+        <v>3.924</v>
       </c>
       <c r="E592" t="n">
-        <v>4.513</v>
+        <v>4.57</v>
       </c>
       <c r="F592" t="n">
-        <v>6.128</v>
+        <v>6.124</v>
       </c>
       <c r="G592" t="n">
-        <v>6.756</v>
+        <v>6.692</v>
       </c>
       <c r="H592" t="n">
-        <v>7.242</v>
+        <v>7.141</v>
       </c>
       <c r="I592" t="n">
-        <v>7.203</v>
+        <v>7.116</v>
       </c>
       <c r="J592" t="n">
-        <v>7.237</v>
+        <v>7.143</v>
       </c>
       <c r="K592" t="n">
+        <v>7.541</v>
+      </c>
+      <c r="L592" t="n">
+        <v>7.344</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B593" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="C593" t="n">
+        <v>2.358</v>
+      </c>
+      <c r="D593" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="E593" t="n">
+        <v>4.424</v>
+      </c>
+      <c r="F593" t="n">
+        <v>6.202</v>
+      </c>
+      <c r="G593" t="n">
+        <v>6.739</v>
+      </c>
+      <c r="H593" t="n">
+        <v>7.259</v>
+      </c>
+      <c r="I593" t="n">
+        <v>7.227</v>
+      </c>
+      <c r="J593" t="n">
+        <v>7.239</v>
+      </c>
+      <c r="K593" t="n">
         <v>7.654</v>
       </c>
-      <c r="L592" t="n">
-        <v>7.463</v>
+      <c r="L593" t="n">
+        <v>7.468</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L593"/>
+  <dimension ref="A1:L594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22964,7 +22964,7 @@
         <v>44803</v>
       </c>
       <c r="B593" t="n">
-        <v>2.118</v>
+        <v>2.185</v>
       </c>
       <c r="C593" t="n">
         <v>2.358</v>
@@ -22973,28 +22973,66 @@
         <v>3.974</v>
       </c>
       <c r="E593" t="n">
-        <v>4.424</v>
+        <v>4.552</v>
       </c>
       <c r="F593" t="n">
-        <v>6.202</v>
+        <v>6.19</v>
       </c>
       <c r="G593" t="n">
-        <v>6.739</v>
+        <v>6.66</v>
       </c>
       <c r="H593" t="n">
-        <v>7.259</v>
+        <v>7.153</v>
       </c>
       <c r="I593" t="n">
-        <v>7.227</v>
+        <v>7.122</v>
       </c>
       <c r="J593" t="n">
-        <v>7.239</v>
+        <v>7.135</v>
       </c>
       <c r="K593" t="n">
-        <v>7.654</v>
+        <v>7.541</v>
       </c>
       <c r="L593" t="n">
-        <v>7.468</v>
+        <v>7.345</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B594" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="C594" t="n">
+        <v>2.273</v>
+      </c>
+      <c r="D594" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="E594" t="n">
+        <v>4.357</v>
+      </c>
+      <c r="F594" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G594" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="H594" t="n">
+        <v>7.233</v>
+      </c>
+      <c r="I594" t="n">
+        <v>7.215</v>
+      </c>
+      <c r="J594" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="K594" t="n">
+        <v>7.651</v>
+      </c>
+      <c r="L594" t="n">
+        <v>7.453</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L594"/>
+  <dimension ref="A1:L595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22967,10 +22967,10 @@
         <v>2.185</v>
       </c>
       <c r="C593" t="n">
-        <v>2.358</v>
+        <v>2.445</v>
       </c>
       <c r="D593" t="n">
-        <v>3.974</v>
+        <v>3.986</v>
       </c>
       <c r="E593" t="n">
         <v>4.552</v>
@@ -23002,7 +23002,7 @@
         <v>44804</v>
       </c>
       <c r="B594" t="n">
-        <v>2.013</v>
+        <v>2.108</v>
       </c>
       <c r="C594" t="n">
         <v>2.273</v>
@@ -23011,28 +23011,66 @@
         <v>3.848</v>
       </c>
       <c r="E594" t="n">
-        <v>4.357</v>
+        <v>4.516</v>
       </c>
       <c r="F594" t="n">
-        <v>6.12</v>
+        <v>6.234</v>
       </c>
       <c r="G594" t="n">
-        <v>6.707</v>
+        <v>6.624</v>
       </c>
       <c r="H594" t="n">
-        <v>7.233</v>
+        <v>7.117</v>
       </c>
       <c r="I594" t="n">
-        <v>7.215</v>
+        <v>7.122</v>
       </c>
       <c r="J594" t="n">
-        <v>7.221</v>
+        <v>7.115</v>
       </c>
       <c r="K594" t="n">
-        <v>7.651</v>
+        <v>7.533</v>
       </c>
       <c r="L594" t="n">
-        <v>7.453</v>
+        <v>7.335</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B595" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C595" t="n">
+        <v>2.296</v>
+      </c>
+      <c r="D595" t="n">
+        <v>3.827</v>
+      </c>
+      <c r="E595" t="n">
+        <v>4.286</v>
+      </c>
+      <c r="F595" t="n">
+        <v>6.097</v>
+      </c>
+      <c r="G595" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="H595" t="n">
+        <v>7.249</v>
+      </c>
+      <c r="I595" t="n">
+        <v>7.205</v>
+      </c>
+      <c r="J595" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="K595" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="L595" t="n">
+        <v>7.443</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L595"/>
+  <dimension ref="A1:L596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23005,10 +23005,10 @@
         <v>2.108</v>
       </c>
       <c r="C594" t="n">
-        <v>2.273</v>
+        <v>2.347</v>
       </c>
       <c r="D594" t="n">
-        <v>3.848</v>
+        <v>3.863</v>
       </c>
       <c r="E594" t="n">
         <v>4.516</v>
@@ -23040,37 +23040,75 @@
         <v>44805</v>
       </c>
       <c r="B595" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="C595" t="n">
+        <v>2.403</v>
+      </c>
+      <c r="D595" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="E595" t="n">
+        <v>4.423</v>
+      </c>
+      <c r="F595" t="n">
+        <v>6.223</v>
+      </c>
+      <c r="G595" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="H595" t="n">
+        <v>7.137</v>
+      </c>
+      <c r="I595" t="n">
+        <v>7.113</v>
+      </c>
+      <c r="J595" t="n">
+        <v>7.111</v>
+      </c>
+      <c r="K595" t="n">
+        <v>7.497</v>
+      </c>
+      <c r="L595" t="n">
+        <v>7.329</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B596" t="n">
         <v>2.03</v>
       </c>
-      <c r="C595" t="n">
-        <v>2.296</v>
-      </c>
-      <c r="D595" t="n">
-        <v>3.827</v>
-      </c>
-      <c r="E595" t="n">
-        <v>4.286</v>
-      </c>
-      <c r="F595" t="n">
-        <v>6.097</v>
-      </c>
-      <c r="G595" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="H595" t="n">
-        <v>7.249</v>
-      </c>
-      <c r="I595" t="n">
-        <v>7.205</v>
-      </c>
-      <c r="J595" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K595" t="n">
-        <v>7.619</v>
-      </c>
-      <c r="L595" t="n">
-        <v>7.443</v>
+      <c r="C596" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="D596" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="E596" t="n">
+        <v>4.438</v>
+      </c>
+      <c r="F596" t="n">
+        <v>6.124</v>
+      </c>
+      <c r="G596" t="n">
+        <v>6.637</v>
+      </c>
+      <c r="H596" t="n">
+        <v>7.144</v>
+      </c>
+      <c r="I596" t="n">
+        <v>7.115</v>
+      </c>
+      <c r="J596" t="n">
+        <v>7.107</v>
+      </c>
+      <c r="K596" t="n">
+        <v>7.517</v>
+      </c>
+      <c r="L596" t="n">
+        <v>7.325</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -23078,7 +23078,7 @@
         <v>44806</v>
       </c>
       <c r="B596" t="n">
-        <v>2.03</v>
+        <v>2.115</v>
       </c>
       <c r="C596" t="n">
         <v>2.33</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L596"/>
+  <dimension ref="A1:L597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23111,6 +23111,44 @@
         <v>7.325</v>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B597" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="C597" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="D597" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E597" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F597" t="n">
+        <v>6.209</v>
+      </c>
+      <c r="G597" t="n">
+        <v>6.715</v>
+      </c>
+      <c r="H597" t="n">
+        <v>7.163</v>
+      </c>
+      <c r="I597" t="n">
+        <v>7.102</v>
+      </c>
+      <c r="J597" t="n">
+        <v>7.127</v>
+      </c>
+      <c r="K597" t="n">
+        <v>7.496</v>
+      </c>
+      <c r="L597" t="n">
+        <v>7.324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L597"/>
+  <dimension ref="A1:L598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23116,10 +23116,10 @@
         <v>44809</v>
       </c>
       <c r="B597" t="n">
-        <v>2.043</v>
+        <v>2.085</v>
       </c>
       <c r="C597" t="n">
-        <v>2.345</v>
+        <v>2.378</v>
       </c>
       <c r="D597" t="n">
         <v>3.844</v>
@@ -23147,6 +23147,44 @@
       </c>
       <c r="L597" t="n">
         <v>7.324</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B598" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C598" t="n">
+        <v>2.252</v>
+      </c>
+      <c r="D598" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="E598" t="n">
+        <v>4.372</v>
+      </c>
+      <c r="F598" t="n">
+        <v>6.128</v>
+      </c>
+      <c r="G598" t="n">
+        <v>6.801</v>
+      </c>
+      <c r="H598" t="n">
+        <v>7.287</v>
+      </c>
+      <c r="I598" t="n">
+        <v>7.219</v>
+      </c>
+      <c r="J598" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="K598" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="L598" t="n">
+        <v>7.446</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L598"/>
+  <dimension ref="A1:L600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23154,37 +23154,113 @@
         <v>44810</v>
       </c>
       <c r="B598" t="n">
-        <v>2.05</v>
+        <v>2.119</v>
       </c>
       <c r="C598" t="n">
-        <v>2.252</v>
+        <v>2.355</v>
       </c>
       <c r="D598" t="n">
-        <v>3.391</v>
+        <v>3.716</v>
       </c>
       <c r="E598" t="n">
-        <v>4.372</v>
+        <v>4.456</v>
       </c>
       <c r="F598" t="n">
-        <v>6.128</v>
+        <v>6.206</v>
       </c>
       <c r="G598" t="n">
-        <v>6.801</v>
+        <v>6.74</v>
       </c>
       <c r="H598" t="n">
-        <v>7.287</v>
+        <v>7.182</v>
       </c>
       <c r="I598" t="n">
-        <v>7.219</v>
+        <v>7.126</v>
       </c>
       <c r="J598" t="n">
-        <v>7.242</v>
+        <v>7.143</v>
       </c>
       <c r="K598" t="n">
-        <v>7.619</v>
+        <v>7.496</v>
       </c>
       <c r="L598" t="n">
-        <v>7.446</v>
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B599" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="C599" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="D599" t="n">
+        <v>3.694</v>
+      </c>
+      <c r="E599" t="n">
+        <v>4.424</v>
+      </c>
+      <c r="F599" t="n">
+        <v>6.203</v>
+      </c>
+      <c r="G599" t="n">
+        <v>6.779</v>
+      </c>
+      <c r="H599" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="I599" t="n">
+        <v>7.154</v>
+      </c>
+      <c r="J599" t="n">
+        <v>7.168</v>
+      </c>
+      <c r="K599" t="n">
+        <v>7.513</v>
+      </c>
+      <c r="L599" t="n">
+        <v>7.333</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B600" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="C600" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="D600" t="n">
+        <v>3.359</v>
+      </c>
+      <c r="E600" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F600" t="n">
+        <v>6.122</v>
+      </c>
+      <c r="G600" t="n">
+        <v>6.832</v>
+      </c>
+      <c r="H600" t="n">
+        <v>7.313</v>
+      </c>
+      <c r="I600" t="n">
+        <v>7.271</v>
+      </c>
+      <c r="J600" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="K600" t="n">
+        <v>7.617</v>
+      </c>
+      <c r="L600" t="n">
+        <v>7.455</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L600"/>
+  <dimension ref="A1:L601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23236,31 +23236,69 @@
         <v>2.247</v>
       </c>
       <c r="D600" t="n">
-        <v>3.359</v>
+        <v>3.535</v>
       </c>
       <c r="E600" t="n">
-        <v>4.24</v>
+        <v>4.366</v>
       </c>
       <c r="F600" t="n">
-        <v>6.122</v>
+        <v>6.205</v>
       </c>
       <c r="G600" t="n">
-        <v>6.832</v>
+        <v>6.764</v>
       </c>
       <c r="H600" t="n">
-        <v>7.313</v>
+        <v>7.21</v>
       </c>
       <c r="I600" t="n">
-        <v>7.271</v>
+        <v>7.177</v>
       </c>
       <c r="J600" t="n">
-        <v>7.32</v>
+        <v>7.233</v>
       </c>
       <c r="K600" t="n">
-        <v>7.617</v>
+        <v>7.496</v>
       </c>
       <c r="L600" t="n">
-        <v>7.455</v>
+        <v>7.342</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B601" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="C601" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="D601" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E601" t="n">
+        <v>4.439</v>
+      </c>
+      <c r="F601" t="n">
+        <v>6.137</v>
+      </c>
+      <c r="G601" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="H601" t="n">
+        <v>7.177</v>
+      </c>
+      <c r="I601" t="n">
+        <v>7.127</v>
+      </c>
+      <c r="J601" t="n">
+        <v>7.176</v>
+      </c>
+      <c r="K601" t="n">
+        <v>7.522</v>
+      </c>
+      <c r="L601" t="n">
+        <v>7.334</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -23230,10 +23230,10 @@
         <v>44812</v>
       </c>
       <c r="B600" t="n">
-        <v>2.005</v>
+        <v>2.124</v>
       </c>
       <c r="C600" t="n">
-        <v>2.247</v>
+        <v>2.306</v>
       </c>
       <c r="D600" t="n">
         <v>3.535</v>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L601"/>
+  <dimension ref="A1:L603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23274,7 +23274,7 @@
         <v>2.283</v>
       </c>
       <c r="D601" t="n">
-        <v>3.56</v>
+        <v>3.273</v>
       </c>
       <c r="E601" t="n">
         <v>4.439</v>
@@ -23298,6 +23298,82 @@
         <v>7.522</v>
       </c>
       <c r="L601" t="n">
+        <v>7.334</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B602" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="C602" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="D602" t="n">
+        <v>3.537</v>
+      </c>
+      <c r="E602" t="n">
+        <v>4.318</v>
+      </c>
+      <c r="F602" t="n">
+        <v>6.192</v>
+      </c>
+      <c r="G602" t="n">
+        <v>6.584</v>
+      </c>
+      <c r="H602" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="I602" t="n">
+        <v>7.049</v>
+      </c>
+      <c r="J602" t="n">
+        <v>7.176</v>
+      </c>
+      <c r="K602" t="n">
+        <v>7.506</v>
+      </c>
+      <c r="L602" t="n">
+        <v>7.336</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B603" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="C603" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="D603" t="n">
+        <v>3.284</v>
+      </c>
+      <c r="E603" t="n">
+        <v>4.114</v>
+      </c>
+      <c r="F603" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G603" t="n">
+        <v>6.575</v>
+      </c>
+      <c r="H603" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="I603" t="n">
+        <v>7.043</v>
+      </c>
+      <c r="J603" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="K603" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="L603" t="n">
         <v>7.334</v>
       </c>
     </row>

--- a/Bonds_Indonesia.xlsx
+++ b/Bonds_Indonesia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L603"/>
+  <dimension ref="A1:L604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23344,28 +23344,28 @@
         <v>44817</v>
       </c>
       <c r="B603" t="n">
-        <v>1.936</v>
+        <v>2.097</v>
       </c>
       <c r="C603" t="n">
-        <v>2.233</v>
+        <v>2.316</v>
       </c>
       <c r="D603" t="n">
-        <v>3.284</v>
+        <v>3.491</v>
       </c>
       <c r="E603" t="n">
-        <v>4.114</v>
+        <v>4.256</v>
       </c>
       <c r="F603" t="n">
-        <v>6.12</v>
+        <v>6.125</v>
       </c>
       <c r="G603" t="n">
-        <v>6.575</v>
+        <v>6.51</v>
       </c>
       <c r="H603" t="n">
-        <v>7.221</v>
+        <v>7.117</v>
       </c>
       <c r="I603" t="n">
-        <v>7.043</v>
+        <v>6.984</v>
       </c>
       <c r="J603" t="n">
         <v>7.16</v>
@@ -23375,6 +23375,44 @@
       </c>
       <c r="L603" t="n">
         <v>7.334</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B604" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="C604" t="n">
+        <v>2.201</v>
+      </c>
+      <c r="D604" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E604" t="n">
+        <v>4.055</v>
+      </c>
+      <c r="F604" t="n">
+        <v>6.094</v>
+      </c>
+      <c r="G604" t="n">
+        <v>6.572</v>
+      </c>
+      <c r="H604" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I604" t="n">
+        <v>7.036</v>
+      </c>
+      <c r="J604" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="K604" t="n">
+        <v>7.636</v>
+      </c>
+      <c r="L604" t="n">
+        <v>7.451</v>
       </c>
     </row>
   </sheetData>
